--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2370"/>
+  <dimension ref="A1:H2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70791,10 +70791,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70829,10 +70827,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2206">
@@ -70863,10 +70859,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -70901,10 +70895,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -70927,10 +70919,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70957,10 +70947,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -70987,10 +70975,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71017,10 +71003,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71047,10 +71031,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71077,10 +71059,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71107,10 +71087,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71137,10 +71115,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71167,10 +71143,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71197,10 +71171,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71227,10 +71199,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71257,10 +71227,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71287,10 +71255,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71321,10 +71287,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71355,10 +71319,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71389,10 +71351,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71423,10 +71383,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71457,10 +71415,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71491,10 +71447,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71521,10 +71475,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71551,10 +71503,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71581,10 +71531,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71615,10 +71563,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71649,10 +71595,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71683,10 +71627,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -71721,10 +71663,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -71759,10 +71699,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71793,10 +71731,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -71831,10 +71767,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -71869,10 +71803,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -71903,10 +71835,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -71941,10 +71871,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -71979,10 +71907,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72017,10 +71943,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72051,10 +71975,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -72085,10 +72007,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -72123,10 +72043,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72149,10 +72067,8 @@
       <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72183,10 +72099,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72217,10 +72131,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72251,10 +72163,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72289,10 +72199,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72323,10 +72231,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72353,10 +72259,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72383,10 +72287,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72417,10 +72319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72451,10 +72351,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72485,10 +72383,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72515,10 +72411,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72545,10 +72439,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72575,10 +72467,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72605,10 +72495,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72635,10 +72523,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72679,10 +72565,8 @@
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2263">
@@ -72713,10 +72597,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -72747,10 +72629,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -72781,10 +72661,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72807,10 +72685,8 @@
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -72841,10 +72717,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -72875,10 +72749,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72905,10 +72777,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -72935,10 +72805,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -72969,10 +72837,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73007,10 +72873,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73041,10 +72905,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73079,10 +72941,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73113,10 +72973,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73147,10 +73005,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -73181,10 +73037,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -73215,114 +73069,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr"/>
-      <c r="C2279" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr"/>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -73336,117 +73196,129 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73456,55 +73328,47 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
@@ -73516,47 +73380,43 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73572,23 +73432,23 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73602,27 +73462,35 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -73632,73 +73500,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr"/>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73708,69 +73560,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -73780,55 +73620,43 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
@@ -73837,54 +73665,50 @@
       <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73893,30 +73717,30 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73930,87 +73754,87 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2304" t="inlineStr"/>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74020,61 +73844,37 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
+      <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74084,31 +73884,23 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74118,31 +73910,27 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74152,47 +73940,55 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
@@ -74204,17 +74000,17 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74230,17 +74026,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74249,112 +74045,112 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
@@ -74364,20 +74160,16 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74389,26 +74181,22 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -74428,16 +74216,20 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74454,23 +74246,31 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -74480,13 +74280,21 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -74496,7 +74304,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74506,7 +74314,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
@@ -74522,7 +74330,7 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74532,11 +74340,15 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
@@ -74548,55 +74360,47 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74608,121 +74412,133 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr"/>
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr"/>
-      <c r="C2327" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
@@ -74734,27 +74550,27 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -74764,23 +74580,23 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -74794,53 +74610,69 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -74850,89 +74682,93 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
@@ -74944,27 +74780,27 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
           <t>2</t>
@@ -74974,23 +74810,27 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
           <t>3</t>
@@ -75000,27 +74840,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>3</t>
@@ -75028,97 +74868,65 @@
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2341" t="inlineStr"/>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
@@ -75126,11 +74934,7 @@
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
           <t>US</t>
@@ -75138,11 +74942,15 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
@@ -75154,79 +74962,87 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr"/>
+      <c r="C2344" t="inlineStr"/>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2344" t="inlineStr"/>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -75236,73 +75052,93 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
@@ -75314,628 +75150,28 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2351">
-      <c r="A2351" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2351" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2351" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2351" t="inlineStr"/>
-      <c r="G2351" t="inlineStr"/>
-      <c r="H2351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2352">
-      <c r="A2352" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2352" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2352" t="inlineStr">
-        <is>
-          <t>Average Cash Earnings YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr"/>
-      <c r="F2352" t="inlineStr"/>
-      <c r="G2352" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H2352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2353">
-      <c r="A2353" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2353" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2353" t="inlineStr">
-        <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2353" t="inlineStr"/>
-      <c r="E2353" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F2353" t="inlineStr"/>
-      <c r="G2353" t="inlineStr"/>
-      <c r="H2353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2354">
-      <c r="A2354" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2354" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2354" t="inlineStr">
-        <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="H2354" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2355">
-      <c r="A2355" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2355" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2355" t="inlineStr">
-        <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2355" t="inlineStr"/>
-      <c r="E2355" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2356">
-      <c r="A2356" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2356" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2356" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2356" t="inlineStr"/>
-      <c r="E2356" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr"/>
-      <c r="G2356" t="inlineStr"/>
-      <c r="H2356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2357">
-      <c r="A2357" t="inlineStr">
-        <is>
-          <t>08:45 PM</t>
-        </is>
-      </c>
-      <c r="B2357" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2357" t="inlineStr">
-        <is>
-          <t>Caixin Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2357" t="inlineStr"/>
-      <c r="E2357" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.8</t>
-        </is>
-      </c>
-      <c r="H2357" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2358">
-      <c r="A2358" t="inlineStr">
-        <is>
-          <t>08:45 PM</t>
-        </is>
-      </c>
-      <c r="B2358" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2358" t="inlineStr">
-        <is>
-          <t>Caixin Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2358" t="inlineStr"/>
-      <c r="E2358" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr"/>
-      <c r="G2358" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="H2358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2359">
-      <c r="A2359" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B2359" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2359" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate YoYQ4</t>
-        </is>
-      </c>
-      <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
-      <c r="F2359" t="inlineStr"/>
-      <c r="G2359" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2359" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2360">
-      <c r="A2360" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B2360" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2360" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
-      <c r="G2360" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="H2360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2361">
-      <c r="A2361" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B2361" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2361" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
-      <c r="G2361" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr"/>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr"/>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr"/>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr">
-        <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr"/>
-      <c r="C2366" t="inlineStr"/>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr"/>
-    </row>
-    <row r="2367">
-      <c r="A2367" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2367" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2367" t="inlineStr">
-        <is>
-          <t>HSBC Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2367" t="inlineStr"/>
-      <c r="E2367" t="inlineStr">
-        <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="G2367" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
-      <c r="H2367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2368">
-      <c r="A2368" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2368" t="inlineStr">
-        <is>
-          <t>HSBC Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr">
-        <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="G2368" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="H2368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2369">
-      <c r="A2369" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2369" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2369" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2369" t="inlineStr"/>
-      <c r="E2369" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr"/>
-      <c r="G2369" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2369" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2370">
-      <c r="A2370" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B2370" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C2370" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2370" t="inlineStr"/>
-      <c r="E2370" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -72530,123 +72530,137 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr"/>
-      <c r="C2261" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="n">
-        <v>2</v>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
@@ -72656,421 +72670,425 @@
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="n">
-        <v>2</v>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="n">
-        <v>3</v>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr"/>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr"/>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+      <c r="G2278" t="inlineStr"/>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2389"/>
+  <dimension ref="A1:H2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70841,10 +70841,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70879,10 +70877,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70913,10 +70909,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70951,10 +70945,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -70977,10 +70969,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71007,10 +70997,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71037,10 +71025,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71067,10 +71053,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71097,10 +71081,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71127,10 +71109,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71157,10 +71137,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71187,10 +71165,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71217,10 +71193,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71247,10 +71221,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71277,10 +71249,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71307,10 +71277,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71337,10 +71305,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71371,10 +71337,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71405,10 +71369,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71439,10 +71401,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71473,10 +71433,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71507,10 +71465,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71541,10 +71497,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71571,10 +71525,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71601,10 +71553,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71631,10 +71581,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71665,10 +71613,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71699,10 +71645,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71733,10 +71677,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71771,10 +71713,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71809,10 +71749,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71843,10 +71781,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71881,10 +71817,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71919,10 +71853,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71953,10 +71885,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -71991,10 +71921,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72029,10 +71957,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72067,10 +71993,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72101,10 +72025,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72135,10 +72057,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72173,10 +72093,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72199,10 +72117,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72233,10 +72149,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72267,10 +72181,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72301,10 +72213,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72339,10 +72249,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72373,10 +72281,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72403,10 +72309,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72433,10 +72337,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72467,10 +72369,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72501,10 +72401,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72535,10 +72433,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72565,10 +72461,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72595,10 +72489,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72625,10 +72517,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72655,10 +72545,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72685,10 +72573,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72729,10 +72615,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72763,10 +72647,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72797,10 +72679,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72831,10 +72711,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72857,10 +72735,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72891,10 +72767,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72925,10 +72799,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72955,10 +72827,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -72985,10 +72855,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73019,10 +72887,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73057,10 +72923,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73091,10 +72955,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73129,10 +72991,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73163,10 +73023,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73197,10 +73055,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73231,10 +73087,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73265,114 +73119,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73386,117 +73246,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73506,55 +73378,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73566,47 +73430,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73622,23 +73482,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73652,27 +73512,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73682,73 +73550,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73758,69 +73610,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73830,55 +73670,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73887,54 +73715,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73943,30 +73767,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -73980,87 +73804,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74070,61 +73894,37 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74134,31 +73934,23 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74168,31 +73960,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74202,47 +73990,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74254,17 +74050,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74280,17 +74076,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74299,112 +74095,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74414,20 +74210,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74439,26 +74231,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74478,16 +74266,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74504,23 +74296,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74530,13 +74330,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74546,7 +74354,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74556,7 +74364,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74572,7 +74380,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74582,11 +74390,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74598,55 +74410,47 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
@@ -74658,121 +74462,133 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
@@ -74784,27 +74600,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74814,23 +74630,23 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
@@ -74844,53 +74660,69 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -74900,89 +74732,93 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -74994,27 +74830,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>2</t>
@@ -75024,23 +74860,27 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
           <t>3</t>
@@ -75050,27 +74890,27 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -75078,97 +74918,65 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2344" t="inlineStr"/>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75176,11 +74984,7 @@
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
           <t>US</t>
@@ -75188,11 +74992,15 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75204,79 +75012,87 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr"/>
+      <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2346" t="inlineStr"/>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2346" t="inlineStr"/>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75286,73 +75102,93 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
@@ -75364,53 +75200,53 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75424,191 +75260,187 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75620,29 +75452,33 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75654,25 +75490,33 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75684,149 +75528,213 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr"/>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr"/>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2367">
-      <c r="A2367" t="inlineStr"/>
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -75836,47 +75744,67 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr"/>
-      <c r="C2368" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75888,33 +75816,29 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -75926,29 +75850,29 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
@@ -75960,606 +75884,28 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2373">
-      <c r="A2373" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B2373" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2373" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2373" t="inlineStr"/>
-      <c r="E2373" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2373" t="inlineStr"/>
-      <c r="G2373" t="inlineStr"/>
-      <c r="H2373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2374">
-      <c r="A2374" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B2374" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2374" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2374" t="inlineStr"/>
-      <c r="E2374" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2374" t="inlineStr"/>
-      <c r="G2374" t="inlineStr"/>
-      <c r="H2374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2375">
-      <c r="A2375" t="inlineStr">
-        <is>
-          <t>02:15 AM</t>
-        </is>
-      </c>
-      <c r="B2375" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2375" t="inlineStr">
-        <is>
-          <t>S&amp;P Global PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2375" t="inlineStr"/>
-      <c r="E2375" t="inlineStr">
-        <is>
-          <t>49.9</t>
-        </is>
-      </c>
-      <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
-      <c r="H2375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2376">
-      <c r="A2376" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B2376" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2376" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2376" t="inlineStr"/>
-      <c r="E2376" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F2376" t="inlineStr"/>
-      <c r="G2376" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="H2376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2377">
-      <c r="A2377" t="inlineStr">
-        <is>
-          <t>03:15 AM</t>
-        </is>
-      </c>
-      <c r="B2377" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2377" t="inlineStr">
-        <is>
-          <t>HCOB Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2377" t="inlineStr"/>
-      <c r="E2377" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
-      <c r="H2377" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2378">
-      <c r="A2378" t="inlineStr">
-        <is>
-          <t>03:15 AM</t>
-        </is>
-      </c>
-      <c r="B2378" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2378" t="inlineStr">
-        <is>
-          <t>HCOB Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2378" t="inlineStr"/>
-      <c r="G2378" t="inlineStr"/>
-      <c r="H2378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2379">
-      <c r="A2379" t="inlineStr">
-        <is>
-          <t>03:45 AM</t>
-        </is>
-      </c>
-      <c r="B2379" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2379" t="inlineStr">
-        <is>
-          <t>HCOB Composite PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr"/>
-      <c r="G2379" t="inlineStr"/>
-      <c r="H2379" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2380">
-      <c r="A2380" t="inlineStr">
-        <is>
-          <t>03:45 AM</t>
-        </is>
-      </c>
-      <c r="B2380" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2380" t="inlineStr">
-        <is>
-          <t>HCOB Services PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr"/>
-      <c r="G2380" t="inlineStr"/>
-      <c r="H2380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2381">
-      <c r="A2381" t="inlineStr">
-        <is>
-          <t>03:50 AM</t>
-        </is>
-      </c>
-      <c r="B2381" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2381" t="inlineStr">
-        <is>
-          <t>HCOB Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="H2381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2382">
-      <c r="A2382" t="inlineStr">
-        <is>
-          <t>03:50 AM</t>
-        </is>
-      </c>
-      <c r="B2382" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2382" t="inlineStr">
-        <is>
-          <t>HCOB Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="H2382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2383">
-      <c r="A2383" t="inlineStr">
-        <is>
-          <t>03:55 AM</t>
-        </is>
-      </c>
-      <c r="B2383" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2383" t="inlineStr">
-        <is>
-          <t>HCOB Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="H2383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2384">
-      <c r="A2384" t="inlineStr">
-        <is>
-          <t>03:55 AM</t>
-        </is>
-      </c>
-      <c r="B2384" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2384" t="inlineStr">
-        <is>
-          <t>HCOB Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="H2384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2385" t="inlineStr">
-        <is>
-          <t>HCOB Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2386" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2386" t="inlineStr">
-        <is>
-          <t>HCOB Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="G2386" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2387" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2387" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2388" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr"/>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2389" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2404"/>
+  <dimension ref="A1:H2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70795,10 +70795,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70833,10 +70831,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2206">
@@ -70867,10 +70863,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -70905,10 +70899,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -70931,10 +70923,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70961,10 +70951,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -70991,10 +70979,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71021,10 +71007,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71051,10 +71035,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71081,10 +71063,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71111,10 +71091,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71141,10 +71119,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71171,10 +71147,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71201,10 +71175,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71231,10 +71203,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71261,10 +71231,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71291,10 +71259,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71325,10 +71291,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71359,10 +71323,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71393,10 +71355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71427,10 +71387,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71461,10 +71419,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71495,10 +71451,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71525,10 +71479,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71555,10 +71507,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71585,10 +71535,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71619,10 +71567,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71653,10 +71599,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71687,10 +71631,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -71725,10 +71667,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -71763,10 +71703,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71797,10 +71735,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -71835,10 +71771,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -71873,10 +71807,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -71907,10 +71839,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -71945,10 +71875,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -71983,10 +71911,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72021,10 +71947,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72055,10 +71979,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -72089,10 +72011,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -72127,10 +72047,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72153,10 +72071,8 @@
       <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72187,10 +72103,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72221,10 +72135,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72255,10 +72167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72293,10 +72203,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72327,10 +72235,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72357,10 +72263,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72387,10 +72291,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72421,10 +72323,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72455,10 +72355,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72489,10 +72387,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72519,10 +72415,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72549,10 +72443,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72579,10 +72471,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72609,10 +72499,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72639,10 +72527,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72683,10 +72569,8 @@
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2263">
@@ -72717,10 +72601,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -72751,10 +72633,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -72785,10 +72665,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72811,10 +72689,8 @@
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -72845,10 +72721,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -72879,10 +72753,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72909,10 +72781,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -72939,10 +72809,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -72973,10 +72841,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73011,10 +72877,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73045,10 +72909,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73083,10 +72945,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73117,10 +72977,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73151,10 +73009,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -73185,10 +73041,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -73219,114 +73073,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr"/>
-      <c r="C2279" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr"/>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -73340,117 +73200,129 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73460,55 +73332,47 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
@@ -73520,47 +73384,43 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73576,23 +73436,23 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73606,27 +73466,35 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -73636,73 +73504,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr"/>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73712,69 +73564,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -73784,55 +73624,43 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
@@ -73841,54 +73669,50 @@
       <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73897,30 +73721,30 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73934,87 +73758,87 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2304" t="inlineStr"/>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74024,61 +73848,37 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
+      <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74088,31 +73888,23 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74122,31 +73914,27 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74156,47 +73944,55 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
@@ -74208,17 +74004,17 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74234,17 +74030,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74253,112 +74049,112 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
@@ -74368,20 +74164,16 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74393,26 +74185,22 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -74432,16 +74220,20 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74458,23 +74250,31 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -74484,13 +74284,21 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -74500,7 +74308,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74510,7 +74318,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
@@ -74526,7 +74334,7 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74536,11 +74344,15 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
@@ -74552,55 +74364,47 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74612,121 +74416,133 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr"/>
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr"/>
-      <c r="C2327" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
@@ -74738,27 +74554,27 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -74768,23 +74584,23 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -74798,53 +74614,69 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -74854,89 +74686,93 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
@@ -74948,27 +74784,27 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
           <t>2</t>
@@ -74978,23 +74814,27 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
           <t>3</t>
@@ -75004,27 +74844,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>3</t>
@@ -75032,97 +74872,65 @@
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2341" t="inlineStr"/>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
@@ -75130,11 +74938,7 @@
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
           <t>US</t>
@@ -75142,11 +74946,15 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
@@ -75158,79 +74966,87 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr"/>
+      <c r="C2344" t="inlineStr"/>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2344" t="inlineStr"/>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -75240,73 +75056,93 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
@@ -75318,53 +75154,53 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
@@ -75378,191 +75214,187 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -75574,29 +75406,33 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
@@ -75608,25 +75444,33 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
-      <c r="F2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75638,149 +75482,213 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2362" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2363" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr"/>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr"/>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2365">
-      <c r="A2365" t="inlineStr"/>
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2365" t="inlineStr">
         <is>
           <t>3</t>
@@ -75790,47 +75698,67 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr"/>
-      <c r="C2366" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
@@ -75842,33 +75770,29 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
@@ -75880,29 +75804,29 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75914,31 +75838,27 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
@@ -75948,23 +75868,23 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
@@ -75978,23 +75898,23 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
@@ -76008,23 +75928,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76038,12 +75958,12 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
@@ -76054,13 +75974,13 @@
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
@@ -76072,53 +75992,57 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
@@ -76132,55 +76056,51 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
       <c r="F2378" t="inlineStr"/>
       <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
@@ -76192,73 +76112,49 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2379" t="inlineStr"/>
+      <c r="F2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
+      <c r="F2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
           <t>3</t>
@@ -76268,106 +76164,78 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76382,656 +76250,32 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2384" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2385">
-      <c r="A2385" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2385" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2385" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2385" t="inlineStr"/>
-      <c r="E2385" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2385" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2386">
-      <c r="A2386" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2386" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2386" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2386" t="inlineStr"/>
-      <c r="E2386" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr"/>
-      <c r="G2386" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="H2386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2387">
-      <c r="A2387" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B2387" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2387" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2387" t="inlineStr"/>
-      <c r="E2387" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="H2387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2388">
-      <c r="A2388" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2388" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2388" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2388" t="inlineStr"/>
-      <c r="E2388" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G2388" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="H2388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2389">
-      <c r="A2389" t="inlineStr">
-        <is>
-          <t>04:30 AM</t>
-        </is>
-      </c>
-      <c r="B2389" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2389" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
-        </is>
-      </c>
-      <c r="D2389" t="inlineStr"/>
-      <c r="E2389" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F2389" t="inlineStr"/>
-      <c r="G2389" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="H2389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2390">
-      <c r="A2390" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2390" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2390" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2390" t="inlineStr"/>
-      <c r="E2390" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2390" t="inlineStr"/>
-      <c r="G2390" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2391">
-      <c r="A2391" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2391" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C2391" t="inlineStr">
-        <is>
-          <t>PPI YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2391" t="inlineStr"/>
-      <c r="E2391" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F2391" t="inlineStr"/>
-      <c r="G2391" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="H2391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2392">
-      <c r="A2392" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2392" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C2392" t="inlineStr">
-        <is>
-          <t>30-Year Green Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
-      <c r="F2392" t="inlineStr"/>
-      <c r="G2392" t="inlineStr"/>
-      <c r="H2392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2393">
-      <c r="A2393" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B2393" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C2393" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2393" t="inlineStr"/>
-      <c r="E2393" t="inlineStr">
-        <is>
-          <t>2.615%</t>
-        </is>
-      </c>
-      <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr"/>
-      <c r="H2393" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2394">
-      <c r="A2394" t="inlineStr">
-        <is>
-          <t>06:10 AM</t>
-        </is>
-      </c>
-      <c r="B2394" t="inlineStr">
-        <is>
-          <t>EU</t>
-        </is>
-      </c>
-      <c r="C2394" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>2.505%</t>
-        </is>
-      </c>
-      <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
-      <c r="H2394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2395">
-      <c r="A2395" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B2395" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C2395" t="inlineStr">
-        <is>
-          <t>M3 Money Supply YoYJAN/24</t>
-        </is>
-      </c>
-      <c r="D2395" t="inlineStr"/>
-      <c r="E2395" t="inlineStr">
-        <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
-      <c r="H2395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2396">
-      <c r="A2396" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2396" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2396" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2396" t="inlineStr"/>
-      <c r="E2396" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2397">
-      <c r="A2397" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2397" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2397" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="H2397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2398">
-      <c r="A2398" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2398" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2398" t="inlineStr">
-        <is>
-          <t>Gross Fixed Investment MoMNOV</t>
-        </is>
-      </c>
-      <c r="D2398" t="inlineStr"/>
-      <c r="E2398" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
-      <c r="G2398" t="inlineStr"/>
-      <c r="H2398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2399">
-      <c r="A2399" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2399" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2399" t="inlineStr">
-        <is>
-          <t>Gross Fixed Investment YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr"/>
-      <c r="H2399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2400">
-      <c r="A2400" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2400" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2400" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
-        </is>
-      </c>
-      <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
-      <c r="F2400" t="inlineStr"/>
-      <c r="G2400" t="inlineStr"/>
-      <c r="H2400" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2401">
-      <c r="A2401" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2401" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2401" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
-        </is>
-      </c>
-      <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
-      <c r="F2401" t="inlineStr"/>
-      <c r="G2401" t="inlineStr"/>
-      <c r="H2401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2402">
-      <c r="A2402" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2402" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2402" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
-        </is>
-      </c>
-      <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
-      <c r="F2402" t="inlineStr"/>
-      <c r="G2402" t="inlineStr"/>
-      <c r="H2402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2403">
-      <c r="A2403" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2403" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2403" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
-        </is>
-      </c>
-      <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
-      <c r="F2403" t="inlineStr"/>
-      <c r="G2403" t="inlineStr"/>
-      <c r="H2403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2404">
-      <c r="A2404" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B2404" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2404" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/31</t>
-        </is>
-      </c>
-      <c r="D2404" t="inlineStr"/>
-      <c r="E2404" t="inlineStr"/>
-      <c r="F2404" t="inlineStr"/>
-      <c r="G2404" t="inlineStr"/>
-      <c r="H2404" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2384"/>
+  <dimension ref="A1:H2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72534,123 +72534,137 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr"/>
-      <c r="C2261" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="n">
-        <v>2</v>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
@@ -72660,421 +72674,425 @@
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="n">
-        <v>2</v>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="n">
-        <v>3</v>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr"/>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr"/>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+      <c r="G2278" t="inlineStr"/>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">
@@ -76281,6 +76299,266 @@
         </is>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>08:15 AM</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>ADP Employment ChangeJAN</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr"/>
+      <c r="E2385" t="inlineStr">
+        <is>
+          <t>122K</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr"/>
+      <c r="G2385" t="inlineStr"/>
+      <c r="H2385" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr"/>
+      <c r="E2386" t="inlineStr">
+        <is>
+          <t>C$-0.32B</t>
+        </is>
+      </c>
+      <c r="F2386" t="inlineStr"/>
+      <c r="G2386" t="inlineStr">
+        <is>
+          <t>C$ -1.6B</t>
+        </is>
+      </c>
+      <c r="H2386" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>ExportsDEC</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr"/>
+      <c r="E2387" t="inlineStr">
+        <is>
+          <t>C$66.11B</t>
+        </is>
+      </c>
+      <c r="F2387" t="inlineStr"/>
+      <c r="G2387" t="inlineStr">
+        <is>
+          <t>C$ 65.8B</t>
+        </is>
+      </c>
+      <c r="H2387" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr"/>
+      <c r="E2388" t="inlineStr">
+        <is>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2388" t="inlineStr"/>
+      <c r="G2388" t="inlineStr">
+        <is>
+          <t>C$ 64.5B</t>
+        </is>
+      </c>
+      <c r="H2388" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>Balance of TradeDEC</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr"/>
+      <c r="E2389" t="inlineStr">
+        <is>
+          <t>$-78.2B</t>
+        </is>
+      </c>
+      <c r="F2389" t="inlineStr"/>
+      <c r="G2389" t="inlineStr">
+        <is>
+          <t>$ -68B</t>
+        </is>
+      </c>
+      <c r="H2389" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>ExportsDEC</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr"/>
+      <c r="E2390" t="inlineStr">
+        <is>
+          <t>$273.4B</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr"/>
+      <c r="G2390" t="inlineStr">
+        <is>
+          <t>$ 275.0B</t>
+        </is>
+      </c>
+      <c r="H2390" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr"/>
+      <c r="E2391" t="inlineStr">
+        <is>
+          <t>$351.6B</t>
+        </is>
+      </c>
+      <c r="F2391" t="inlineStr"/>
+      <c r="G2391" t="inlineStr">
+        <is>
+          <t>$ 338B</t>
+        </is>
+      </c>
+      <c r="H2391" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>Treasury Refunding Announcement</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr"/>
+      <c r="E2392" t="inlineStr"/>
+      <c r="F2392" t="inlineStr"/>
+      <c r="G2392" t="inlineStr"/>
+      <c r="H2392" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2441"/>
+  <dimension ref="A1:H2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70841,10 +70841,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70879,10 +70877,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70913,10 +70909,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70951,10 +70945,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -70977,10 +70969,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71007,10 +70997,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71037,10 +71025,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71067,10 +71053,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71097,10 +71081,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71127,10 +71109,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71157,10 +71137,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71187,10 +71165,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71217,10 +71193,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71247,10 +71221,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71277,10 +71249,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71307,10 +71277,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71337,10 +71305,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71371,10 +71337,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71405,10 +71369,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71439,10 +71401,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71473,10 +71433,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71507,10 +71465,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71541,10 +71497,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71571,10 +71525,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71601,10 +71553,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71631,10 +71581,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71665,10 +71613,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71699,10 +71645,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71733,10 +71677,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71771,10 +71713,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71809,10 +71749,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71843,10 +71781,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71881,10 +71817,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71919,10 +71853,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71953,10 +71885,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -71991,10 +71921,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72029,10 +71957,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72067,10 +71993,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72101,10 +72025,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72135,10 +72057,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72173,10 +72093,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72199,10 +72117,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72233,10 +72149,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72267,10 +72181,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72301,10 +72213,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72339,10 +72249,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72373,10 +72281,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72403,10 +72309,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72433,10 +72337,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72467,10 +72369,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72501,10 +72401,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72535,10 +72433,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72565,10 +72461,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72595,10 +72489,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72625,10 +72517,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72655,10 +72545,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72685,10 +72573,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72729,10 +72615,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72763,10 +72647,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72797,10 +72679,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72831,10 +72711,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72857,10 +72735,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72891,10 +72767,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72925,10 +72799,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72955,10 +72827,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -72985,10 +72855,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73019,10 +72887,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73057,10 +72923,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73091,10 +72955,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73129,10 +72991,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73163,10 +73023,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73197,10 +73055,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73231,10 +73087,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73265,114 +73119,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73386,117 +73246,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73506,55 +73378,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73566,47 +73430,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73622,23 +73482,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73652,27 +73512,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73682,73 +73550,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73758,69 +73610,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73830,55 +73670,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73887,54 +73715,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73943,30 +73767,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -73980,87 +73804,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74070,61 +73894,37 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74134,31 +73934,23 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74168,31 +73960,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74202,47 +73990,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74254,17 +74050,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74280,17 +74076,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74299,112 +74095,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74414,20 +74210,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74439,26 +74231,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74478,16 +74266,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74504,23 +74296,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74530,13 +74330,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74546,7 +74354,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74556,7 +74364,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74572,7 +74380,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74582,11 +74390,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74598,55 +74410,47 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
@@ -74658,121 +74462,133 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
@@ -74784,27 +74600,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74814,23 +74630,23 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
@@ -74844,53 +74660,69 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -74900,89 +74732,93 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -74994,27 +74830,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>2</t>
@@ -75024,23 +74860,27 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
           <t>3</t>
@@ -75050,27 +74890,27 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -75078,97 +74918,65 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2344" t="inlineStr"/>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75176,11 +74984,7 @@
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
           <t>US</t>
@@ -75188,11 +74992,15 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75204,79 +75012,87 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr"/>
+      <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2346" t="inlineStr"/>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2346" t="inlineStr"/>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75286,73 +75102,93 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
@@ -75364,53 +75200,53 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75424,191 +75260,187 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75620,29 +75452,33 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75654,25 +75490,33 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75684,149 +75528,213 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr"/>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr"/>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2367">
-      <c r="A2367" t="inlineStr"/>
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -75836,47 +75744,67 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr"/>
-      <c r="C2368" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75888,33 +75816,29 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -75926,29 +75850,29 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
@@ -75960,31 +75884,27 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -75994,23 +75914,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76024,23 +75944,23 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
@@ -76054,23 +75974,23 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
@@ -76084,12 +76004,12 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -76100,13 +76020,13 @@
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -76118,53 +76038,57 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
@@ -76178,55 +76102,51 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
@@ -76238,73 +76158,49 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
           <t>3</t>
@@ -76314,106 +76210,78 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2384" t="inlineStr"/>
+      <c r="F2384" t="inlineStr"/>
+      <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76428,69 +76296,61 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>2</t>
@@ -76500,63 +76360,63 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
@@ -76568,165 +76428,157 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2390" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
@@ -76738,27 +76590,31 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -76768,27 +76624,31 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2396" t="inlineStr">
         <is>
           <t>3</t>
@@ -76798,59 +76658,71 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
@@ -76862,57 +76734,49 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
@@ -76926,23 +76790,23 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2401" t="inlineStr"/>
@@ -76956,7 +76820,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -76966,23 +76830,27 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
@@ -76992,11 +76860,15 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
@@ -77008,7 +76880,7 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77018,7 +76890,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77027,14 +76899,14 @@
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
@@ -77044,7 +76916,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
@@ -77053,14 +76925,14 @@
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
@@ -77070,7 +76942,7 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
@@ -77086,65 +76958,49 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
           <t>3</t>
@@ -77154,7 +77010,7 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
@@ -77164,85 +77020,65 @@
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
         <is>
           <t>3</t>
@@ -77252,31 +77088,23 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
           <t>3</t>
@@ -77286,29 +77114,25 @@
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
       <c r="G2413" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2413" t="inlineStr">
@@ -77320,91 +77144,83 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2414" t="inlineStr"/>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2414" t="inlineStr"/>
       <c r="H2414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2416" t="inlineStr">
         <is>
           <t>3</t>
@@ -77414,31 +77230,23 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2417" t="inlineStr"/>
       <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
           <t>3</t>
@@ -77448,29 +77256,25 @@
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2418" t="inlineStr"/>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2418" t="inlineStr">
@@ -77482,7 +77286,7 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
@@ -77492,75 +77296,47 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
+      <c r="F2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2421" t="inlineStr"/>
       <c r="B2421" t="inlineStr">
         <is>
           <t>US</t>
@@ -77568,566 +77344,18 @@
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr"/>
+      <c r="E2421" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2421" t="inlineStr"/>
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityJAN</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
-      <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>ISM Services PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2426">
-      <c r="A2426" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2426" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
-      <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2427">
-      <c r="A2427" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2427" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2427" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
-      <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2428">
-      <c r="A2428" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2428" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2428" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr"/>
-      <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr"/>
-      <c r="H2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2429">
-      <c r="A2429" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2429" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2429" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
-      <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr"/>
-      <c r="H2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2430">
-      <c r="A2430" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2430" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2430" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
-      <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2431">
-      <c r="A2431" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2431" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2431" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
-      <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr"/>
-      <c r="H2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2432">
-      <c r="A2432" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2432" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2432" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
-      <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr"/>
-      <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2433">
-      <c r="A2433" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2433" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2433" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
-      <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr"/>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2434" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
-      <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
-      <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2436">
-      <c r="A2436" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr"/>
-      <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr"/>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr"/>
-      <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr"/>
-      <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
-      <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr"/>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2442"/>
+  <dimension ref="A1:H2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70795,10 +70795,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70833,10 +70831,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2206">
@@ -70867,10 +70863,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -70905,10 +70899,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -70931,10 +70923,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70961,10 +70951,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -70991,10 +70979,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71021,10 +71007,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71051,10 +71035,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71081,10 +71063,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71111,10 +71091,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71141,10 +71119,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71171,10 +71147,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71201,10 +71175,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71231,10 +71203,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71261,10 +71231,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71291,10 +71259,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71325,10 +71291,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71359,10 +71323,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71393,10 +71355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71427,10 +71387,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71461,10 +71419,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71495,10 +71451,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71525,10 +71479,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71555,10 +71507,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71585,10 +71535,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71619,10 +71567,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71653,10 +71599,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71687,10 +71631,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -71725,10 +71667,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -71763,10 +71703,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71797,10 +71735,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -71835,10 +71771,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -71873,10 +71807,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -71907,10 +71839,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -71945,10 +71875,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -71983,10 +71911,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72021,10 +71947,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72055,10 +71979,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -72089,10 +72011,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -72127,10 +72047,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72153,10 +72071,8 @@
       <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72187,10 +72103,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72221,10 +72135,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72255,10 +72167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72293,10 +72203,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72327,10 +72235,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72357,10 +72263,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72387,10 +72291,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72421,10 +72323,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72455,10 +72355,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72489,10 +72387,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72519,10 +72415,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72549,10 +72443,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72579,10 +72471,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72609,10 +72499,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72639,10 +72527,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72683,10 +72569,8 @@
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2263">
@@ -72717,10 +72601,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -72751,10 +72633,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -72785,10 +72665,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72811,10 +72689,8 @@
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -72845,10 +72721,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -72879,10 +72753,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72909,10 +72781,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -72939,10 +72809,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -72973,10 +72841,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73011,10 +72877,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73045,10 +72909,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73083,10 +72945,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73117,10 +72977,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73151,10 +73009,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -73185,10 +73041,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -73219,114 +73073,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr"/>
-      <c r="C2279" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr"/>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -73340,117 +73200,129 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73460,55 +73332,47 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
@@ -73520,47 +73384,43 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73576,23 +73436,23 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73606,27 +73466,35 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -73636,73 +73504,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr"/>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73712,69 +73564,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -73784,55 +73624,43 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
@@ -73841,54 +73669,50 @@
       <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73897,30 +73721,30 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73934,87 +73758,87 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2304" t="inlineStr"/>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74024,61 +73848,37 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
+      <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74088,31 +73888,23 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74122,31 +73914,27 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74156,47 +73944,55 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
@@ -74208,17 +74004,17 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74234,17 +74030,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74253,112 +74049,112 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
@@ -74368,20 +74164,16 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74393,26 +74185,22 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -74432,16 +74220,20 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74458,23 +74250,31 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -74484,13 +74284,21 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -74500,7 +74308,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74510,7 +74318,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
@@ -74526,7 +74334,7 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74536,11 +74344,15 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
@@ -74552,55 +74364,47 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74612,121 +74416,133 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr"/>
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr"/>
-      <c r="C2327" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
@@ -74738,27 +74554,27 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -74768,23 +74584,23 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -74798,53 +74614,69 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -74854,89 +74686,93 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
@@ -74948,27 +74784,27 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
           <t>2</t>
@@ -74978,23 +74814,27 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
           <t>3</t>
@@ -75004,27 +74844,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>3</t>
@@ -75032,97 +74872,65 @@
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2341" t="inlineStr"/>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
@@ -75130,11 +74938,7 @@
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
           <t>US</t>
@@ -75142,11 +74946,15 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
@@ -75158,79 +74966,87 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr"/>
+      <c r="C2344" t="inlineStr"/>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2344" t="inlineStr"/>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -75240,73 +75056,93 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
@@ -75318,53 +75154,53 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
@@ -75378,191 +75214,187 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -75574,29 +75406,33 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
@@ -75608,25 +75444,33 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
-      <c r="F2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75638,149 +75482,213 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2362" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2363" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr"/>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr"/>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2365">
-      <c r="A2365" t="inlineStr"/>
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2365" t="inlineStr">
         <is>
           <t>3</t>
@@ -75790,47 +75698,67 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr"/>
-      <c r="C2366" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
@@ -75842,33 +75770,29 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
@@ -75880,29 +75804,29 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75914,31 +75838,27 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
@@ -75948,23 +75868,23 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
@@ -75978,23 +75898,23 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
@@ -76008,23 +75928,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76038,12 +75958,12 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
@@ -76054,13 +75974,13 @@
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
@@ -76072,53 +75992,57 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
@@ -76132,55 +76056,51 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
       <c r="F2378" t="inlineStr"/>
       <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
@@ -76192,73 +76112,49 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2379" t="inlineStr"/>
+      <c r="F2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
+      <c r="F2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
           <t>3</t>
@@ -76268,106 +76164,78 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76382,69 +76250,61 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
           <t>2</t>
@@ -76454,63 +76314,63 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
       <c r="G2387" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2387" t="inlineStr">
@@ -76522,165 +76382,157 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2392" t="inlineStr"/>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
@@ -76692,27 +76544,31 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr"/>
+      <c r="G2393" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2393" t="inlineStr">
         <is>
           <t>3</t>
@@ -76722,27 +76578,31 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2394" t="inlineStr">
         <is>
           <t>3</t>
@@ -76752,59 +76612,71 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2396" t="inlineStr">
@@ -76816,57 +76688,49 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2397" t="inlineStr"/>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr"/>
@@ -76880,23 +76744,23 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
       <c r="E2399" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2399" t="inlineStr"/>
@@ -76910,7 +76774,7 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
@@ -76920,23 +76784,27 @@
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2400" t="inlineStr"/>
       <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
@@ -76946,11 +76814,15 @@
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
@@ -76962,7 +76834,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -76972,7 +76844,7 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
@@ -76981,14 +76853,14 @@
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
@@ -76998,7 +76870,7 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
@@ -77007,14 +76879,14 @@
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77024,7 +76896,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77040,65 +76912,49 @@
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2405" t="inlineStr"/>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2406" t="inlineStr"/>
       <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
           <t>3</t>
@@ -77108,7 +76964,7 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
@@ -77118,85 +76974,65 @@
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
       <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
           <t>3</t>
@@ -77206,31 +77042,23 @@
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
           <t>3</t>
@@ -77240,29 +77068,25 @@
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
       <c r="G2411" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2411" t="inlineStr">
@@ -77274,91 +77098,83 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2413" t="inlineStr"/>
       <c r="H2413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
+      <c r="G2414" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2414" t="inlineStr">
         <is>
           <t>3</t>
@@ -77368,31 +77184,23 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
         <is>
           <t>3</t>
@@ -77402,29 +77210,25 @@
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2416" t="inlineStr"/>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2416" t="inlineStr">
@@ -77436,7 +77240,7 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
@@ -77446,73 +77250,49 @@
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2417" t="inlineStr"/>
+      <c r="F2417" t="inlineStr"/>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2418" t="inlineStr"/>
+      <c r="F2418" t="inlineStr"/>
+      <c r="G2418" t="inlineStr"/>
       <c r="H2418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
@@ -77522,7 +77302,7 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
@@ -77531,16 +77311,12 @@
       <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2420">
-      <c r="A2420" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2420" t="inlineStr"/>
       <c r="B2420" t="inlineStr">
         <is>
           <t>US</t>
@@ -77548,618 +77324,18 @@
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
       <c r="E2420" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>16.8M</t>
         </is>
       </c>
       <c r="F2420" t="inlineStr"/>
       <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2421">
-      <c r="A2421" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2421" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2421" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="D2421" t="inlineStr"/>
-      <c r="E2421" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr"/>
-      <c r="H2421" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2422">
-      <c r="A2422" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2422" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2422" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="D2422" t="inlineStr"/>
-      <c r="E2422" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
-      <c r="H2422" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2423">
-      <c r="A2423" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2423" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2423" t="inlineStr">
-        <is>
-          <t>ISM Services PricesJAN</t>
-        </is>
-      </c>
-      <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
-      <c r="H2423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2424">
-      <c r="A2424" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2424" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2424" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2424" t="inlineStr"/>
-      <c r="E2424" t="inlineStr"/>
-      <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
-      <c r="H2424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2425">
-      <c r="A2425" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2425" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2425" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr"/>
-      <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
-      <c r="H2425" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2426">
-      <c r="A2426" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2426" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2426" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2426" t="inlineStr"/>
-      <c r="E2426" t="inlineStr"/>
-      <c r="F2426" t="inlineStr"/>
-      <c r="G2426" t="inlineStr"/>
-      <c r="H2426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2427">
-      <c r="A2427" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2427" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2427" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
-      <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
-      <c r="H2427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2428">
-      <c r="A2428" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2428" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2428" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr"/>
-      <c r="F2428" t="inlineStr"/>
-      <c r="G2428" t="inlineStr"/>
-      <c r="H2428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2429">
-      <c r="A2429" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2429" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2429" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
-      <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr"/>
-      <c r="H2429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2430">
-      <c r="A2430" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2430" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2430" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
-      <c r="F2430" t="inlineStr"/>
-      <c r="G2430" t="inlineStr"/>
-      <c r="H2430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2431">
-      <c r="A2431" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2431" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2431" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
-      <c r="F2431" t="inlineStr"/>
-      <c r="G2431" t="inlineStr"/>
-      <c r="H2431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2432">
-      <c r="A2432" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2432" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2432" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
-      <c r="F2432" t="inlineStr"/>
-      <c r="G2432" t="inlineStr"/>
-      <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2433">
-      <c r="A2433" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2433" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2433" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
-      <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2434" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
-      <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
-      <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr"/>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2436">
-      <c r="A2436" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr"/>
-      <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr"/>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr"/>
-      <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
-      <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr"/>
-      <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2442">
-      <c r="A2442" t="inlineStr"/>
-      <c r="B2442" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2442" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2442" t="inlineStr"/>
-      <c r="G2442" t="inlineStr"/>
-      <c r="H2442" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -72534,123 +72534,137 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr"/>
-      <c r="C2261" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="n">
-        <v>2</v>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
@@ -72660,421 +72674,425 @@
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="n">
-        <v>2</v>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="n">
-        <v>3</v>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr"/>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr"/>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+      <c r="G2278" t="inlineStr"/>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2448"/>
+  <dimension ref="A1:H2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70841,10 +70841,8 @@
       </c>
       <c r="F2206" t="inlineStr"/>
       <c r="G2206" t="inlineStr"/>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2207">
@@ -70879,10 +70877,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2208">
@@ -70913,10 +70909,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70951,10 +70945,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2210">
@@ -70977,10 +70969,8 @@
       <c r="E2210" t="inlineStr"/>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2211">
@@ -71007,10 +70997,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71037,10 +71025,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71067,10 +71053,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71097,10 +71081,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71127,10 +71109,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71157,10 +71137,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71187,10 +71165,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71217,10 +71193,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71247,10 +71221,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71277,10 +71249,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71307,10 +71277,8 @@
       </c>
       <c r="F2221" t="inlineStr"/>
       <c r="G2221" t="inlineStr"/>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71337,10 +71305,8 @@
       </c>
       <c r="F2222" t="inlineStr"/>
       <c r="G2222" t="inlineStr"/>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71371,10 +71337,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71405,10 +71369,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71439,10 +71401,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71473,10 +71433,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71507,10 +71465,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71541,10 +71497,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71571,10 +71525,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71601,10 +71553,8 @@
       </c>
       <c r="F2230" t="inlineStr"/>
       <c r="G2230" t="inlineStr"/>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71631,10 +71581,8 @@
       </c>
       <c r="F2231" t="inlineStr"/>
       <c r="G2231" t="inlineStr"/>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2232">
@@ -71665,10 +71613,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2233">
@@ -71699,10 +71645,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2234">
@@ -71733,10 +71677,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71771,10 +71713,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2236">
@@ -71809,10 +71749,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2237">
@@ -71843,10 +71781,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2238">
@@ -71881,10 +71817,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2239">
@@ -71919,10 +71853,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2240">
@@ -71953,10 +71885,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2241">
@@ -71991,10 +71921,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72029,10 +71957,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2243">
@@ -72067,10 +71993,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2244">
@@ -72101,10 +72025,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72135,10 +72057,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72173,10 +72093,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72199,10 +72117,8 @@
       <c r="E2247" t="inlineStr"/>
       <c r="F2247" t="inlineStr"/>
       <c r="G2247" t="inlineStr"/>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72233,10 +72149,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2249">
@@ -72267,10 +72181,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72301,10 +72213,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72339,10 +72249,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2252">
@@ -72373,10 +72281,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72403,10 +72309,8 @@
       </c>
       <c r="F2253" t="inlineStr"/>
       <c r="G2253" t="inlineStr"/>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2254">
@@ -72433,10 +72337,8 @@
       </c>
       <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr"/>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72467,10 +72369,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2256">
@@ -72501,10 +72401,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72535,10 +72433,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72565,10 +72461,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72595,10 +72489,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72625,10 +72517,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72655,10 +72545,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2261" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2262">
@@ -72685,10 +72573,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2263">
@@ -72729,10 +72615,8 @@
       </c>
       <c r="F2264" t="inlineStr"/>
       <c r="G2264" t="inlineStr"/>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2265">
@@ -72763,10 +72647,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72797,10 +72679,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2267">
@@ -72831,10 +72711,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2268">
@@ -72857,10 +72735,8 @@
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
       <c r="G2268" t="inlineStr"/>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72891,10 +72767,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2270">
@@ -72925,10 +72799,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2271">
@@ -72955,10 +72827,8 @@
       </c>
       <c r="F2271" t="inlineStr"/>
       <c r="G2271" t="inlineStr"/>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -72985,10 +72855,8 @@
       </c>
       <c r="F2272" t="inlineStr"/>
       <c r="G2272" t="inlineStr"/>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2273">
@@ -73019,10 +72887,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2274">
@@ -73057,10 +72923,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2275">
@@ -73091,10 +72955,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73129,10 +72991,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2277">
@@ -73163,10 +73023,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2278">
@@ -73197,10 +73055,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
@@ -73231,10 +73087,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2279" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2280">
@@ -73265,114 +73119,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr"/>
-      <c r="C2281" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2281" t="inlineStr"/>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
-      <c r="H2281" t="inlineStr"/>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2282" t="inlineStr"/>
+      <c r="G2282" t="inlineStr"/>
       <c r="H2282" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
@@ -73386,117 +73246,129 @@
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
       <c r="G2285" t="inlineStr"/>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
       <c r="E2287" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2287" t="inlineStr"/>
-      <c r="G2287" t="inlineStr"/>
+      <c r="G2287" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
       <c r="E2288" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr"/>
+      <c r="G2288" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2288" t="inlineStr">
         <is>
           <t>3</t>
@@ -73506,55 +73378,47 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr"/>
       <c r="H2290" t="inlineStr">
@@ -73566,47 +73430,43 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr"/>
       <c r="H2291" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
@@ -73622,23 +73482,23 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2293" t="inlineStr"/>
@@ -73652,27 +73512,35 @@
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2294" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73682,73 +73550,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
+      <c r="G2295" t="inlineStr"/>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
       <c r="E2296" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2296" t="inlineStr"/>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>2</t>
@@ -73758,69 +73610,57 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
       <c r="E2297" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2297" t="inlineStr"/>
       <c r="G2297" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
-      <c r="E2298" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2298" t="inlineStr"/>
       <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
           <t>3</t>
@@ -73830,55 +73670,43 @@
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
+      <c r="F2299" t="inlineStr"/>
+      <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73887,54 +73715,50 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
-      <c r="E2301" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2301" t="inlineStr"/>
       <c r="F2301" t="inlineStr"/>
       <c r="G2301" t="inlineStr"/>
       <c r="H2301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
@@ -73943,30 +73767,30 @@
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
@@ -73980,87 +73804,87 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr"/>
       <c r="H2304" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
       <c r="H2305" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2306" t="inlineStr"/>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr"/>
+      <c r="G2306" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74070,61 +73894,37 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
+      <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
-      <c r="H2307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
-      <c r="E2308" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74134,31 +73934,23 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr"/>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
           <t>3</t>
@@ -74168,31 +73960,27 @@
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2310" t="inlineStr"/>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
         <is>
           <t>3</t>
@@ -74202,47 +73990,55 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
-      <c r="E2311" t="inlineStr"/>
+      <c r="E2311" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2311" t="inlineStr"/>
       <c r="G2311" t="inlineStr"/>
       <c r="H2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
-      <c r="E2312" t="inlineStr"/>
+      <c r="E2312" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2312" t="inlineStr"/>
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
@@ -74254,17 +74050,17 @@
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
@@ -74280,17 +74076,17 @@
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
@@ -74299,112 +74095,112 @@
       <c r="G2314" t="inlineStr"/>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
-      <c r="G2315" t="inlineStr"/>
+      <c r="G2315" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
       <c r="E2316" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
       <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
@@ -74414,20 +74210,16 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
       <c r="G2318" t="inlineStr"/>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74439,26 +74231,22 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2319" t="inlineStr"/>
       <c r="H2319" t="inlineStr">
         <is>
           <t>3</t>
@@ -74478,16 +74266,20 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
       <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74504,23 +74296,31 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr"/>
+      <c r="G2321" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74530,13 +74330,21 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr"/>
+      <c r="G2322" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -74546,7 +74354,7 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
@@ -74556,7 +74364,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
@@ -74572,7 +74380,7 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
@@ -74582,11 +74390,15 @@
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74598,55 +74410,47 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
       <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
@@ -74658,121 +74462,133 @@
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2327" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2327" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2327" t="inlineStr"/>
-      <c r="E2327" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
       <c r="H2327" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2328">
-      <c r="A2328" t="inlineStr"/>
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
-      <c r="G2328" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2329" t="inlineStr"/>
-      <c r="C2329" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2329" t="inlineStr"/>
       <c r="E2329" t="inlineStr"/>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
-      <c r="H2329" t="inlineStr"/>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2330" t="inlineStr"/>
       <c r="G2330" t="inlineStr"/>
       <c r="H2330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
-      <c r="E2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2331" t="inlineStr"/>
       <c r="G2331" t="inlineStr"/>
       <c r="H2331" t="inlineStr">
@@ -74784,27 +74600,27 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
-      <c r="E2332" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2332" t="inlineStr"/>
       <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
           <t>3</t>
@@ -74814,23 +74630,23 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
       <c r="E2333" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2333" t="inlineStr"/>
@@ -74844,53 +74660,69 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
       <c r="E2334" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2334" t="inlineStr"/>
-      <c r="G2334" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
-      <c r="E2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2335" t="inlineStr"/>
-      <c r="G2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2335" t="inlineStr">
         <is>
           <t>3</t>
@@ -74900,89 +74732,93 @@
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
-      <c r="E2336" t="inlineStr"/>
+      <c r="E2336" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr"/>
       <c r="H2336" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
       <c r="E2337" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2337" t="inlineStr"/>
       <c r="G2337" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2338" t="inlineStr"/>
       <c r="G2338" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2338" t="inlineStr">
@@ -74994,27 +74830,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>2</t>
@@ -75024,23 +74860,27 @@
     <row r="2340">
       <c r="A2340" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2340" t="inlineStr">
         <is>
           <t>3</t>
@@ -75050,27 +74890,27 @@
     <row r="2341">
       <c r="A2341" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2341" t="inlineStr">
         <is>
           <t>3</t>
@@ -75078,97 +74918,65 @@
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
       <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2343" t="inlineStr"/>
       <c r="F2343" t="inlineStr"/>
-      <c r="G2343" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2344">
-      <c r="A2344" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2344" t="inlineStr"/>
       <c r="B2344" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
-      <c r="G2344" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2344" t="inlineStr"/>
       <c r="H2344" t="inlineStr">
         <is>
           <t>3</t>
@@ -75176,11 +74984,7 @@
       </c>
     </row>
     <row r="2345">
-      <c r="A2345" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2345" t="inlineStr"/>
       <c r="B2345" t="inlineStr">
         <is>
           <t>US</t>
@@ -75188,11 +74992,15 @@
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2345" t="inlineStr"/>
       <c r="G2345" t="inlineStr"/>
       <c r="H2345" t="inlineStr">
@@ -75204,79 +75012,87 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2346" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2346" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr"/>
+      <c r="C2346" t="inlineStr"/>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2346" t="inlineStr"/>
       <c r="F2346" t="inlineStr"/>
       <c r="G2346" t="inlineStr"/>
-      <c r="H2346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2346" t="inlineStr"/>
     </row>
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
-      <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
-      <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
           <t>3</t>
@@ -75286,73 +75102,93 @@
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
-      <c r="G2349" t="inlineStr"/>
+      <c r="G2349" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2349" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
-      <c r="E2350" t="inlineStr"/>
+      <c r="E2350" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2350" t="inlineStr"/>
-      <c r="G2350" t="inlineStr"/>
+      <c r="G2350" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
-      <c r="E2351" t="inlineStr"/>
+      <c r="E2351" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2351" t="inlineStr"/>
       <c r="G2351" t="inlineStr"/>
       <c r="H2351" t="inlineStr">
@@ -75364,53 +75200,53 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
       <c r="E2352" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr"/>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
@@ -75424,191 +75260,187 @@
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
-      <c r="E2354" t="inlineStr"/>
+      <c r="E2354" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2354" t="inlineStr"/>
       <c r="G2354" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
       <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2356" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2356" t="inlineStr"/>
+      <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2357" t="inlineStr"/>
-      <c r="G2357" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2357" t="inlineStr"/>
       <c r="H2357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2358" t="inlineStr"/>
       <c r="G2358" t="inlineStr"/>
       <c r="H2358" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
       <c r="E2359" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2359" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75620,29 +75452,33 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
       <c r="E2360" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2360" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
@@ -75654,25 +75490,33 @@
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
@@ -75684,149 +75528,213 @@
     <row r="2362">
       <c r="A2362" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2362" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2362" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2363" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2363" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2363" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2363" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr"/>
+      <c r="E2365" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2365" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr"/>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2365">
-      <c r="A2365" t="inlineStr"/>
-      <c r="B2365" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2365" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2365" t="inlineStr"/>
-      <c r="E2365" t="inlineStr"/>
-      <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
-      <c r="H2365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2366">
-      <c r="A2366" t="inlineStr"/>
-      <c r="B2366" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2366" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2367">
-      <c r="A2367" t="inlineStr"/>
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2367" t="inlineStr"/>
-      <c r="G2367" t="inlineStr"/>
+      <c r="G2367" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2367" t="inlineStr">
         <is>
           <t>3</t>
@@ -75836,47 +75744,67 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2368" t="inlineStr"/>
-      <c r="C2368" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2368" t="inlineStr"/>
-      <c r="E2368" t="inlineStr"/>
-      <c r="F2368" t="inlineStr"/>
-      <c r="G2368" t="inlineStr"/>
-      <c r="H2368" t="inlineStr"/>
+      <c r="E2368" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2368" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2368" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2369" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75888,33 +75816,29 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2370" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2370" t="inlineStr"/>
       <c r="G2370" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2370" t="inlineStr">
@@ -75926,29 +75850,29 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
       <c r="G2371" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2371" t="inlineStr">
@@ -75960,31 +75884,27 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
-      <c r="G2372" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2372" t="inlineStr"/>
       <c r="H2372" t="inlineStr">
         <is>
           <t>3</t>
@@ -75994,23 +75914,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76024,23 +75944,23 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
@@ -76054,23 +75974,23 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
@@ -76084,12 +76004,12 @@
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
@@ -76100,13 +76020,13 @@
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
       <c r="G2376" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2376" t="inlineStr">
@@ -76118,53 +76038,57 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
-      <c r="G2377" t="inlineStr"/>
+      <c r="G2377" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
       <c r="E2378" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2378" t="inlineStr"/>
@@ -76178,55 +76102,51 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
       <c r="E2379" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2379" t="inlineStr"/>
       <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
       <c r="F2380" t="inlineStr"/>
       <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
@@ -76238,73 +76158,49 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
           <t>3</t>
@@ -76314,106 +76210,78 @@
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
-      <c r="E2383" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2383" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2383" t="inlineStr"/>
+      <c r="F2383" t="inlineStr"/>
+      <c r="G2383" t="inlineStr"/>
       <c r="H2383" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
-      <c r="E2384" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2384" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2384" t="inlineStr"/>
+      <c r="F2384" t="inlineStr"/>
+      <c r="G2384" t="inlineStr"/>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2385" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2385" t="inlineStr"/>
       <c r="G2385" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76428,69 +76296,61 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2386" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
-      <c r="G2387" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2387" t="inlineStr"/>
       <c r="H2387" t="inlineStr">
         <is>
           <t>2</t>
@@ -76500,63 +76360,63 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
@@ -76568,165 +76428,157 @@
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2390" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
       <c r="E2392" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2392" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
       <c r="G2393" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2393" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
-      <c r="E2394" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2394" t="inlineStr"/>
       <c r="F2394" t="inlineStr"/>
       <c r="G2394" t="inlineStr"/>
       <c r="H2394" t="inlineStr">
@@ -76738,27 +76590,31 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
           <t>3</t>
@@ -76768,27 +76624,31 @@
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2396" t="inlineStr"/>
-      <c r="G2396" t="inlineStr"/>
+      <c r="G2396" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2396" t="inlineStr">
         <is>
           <t>3</t>
@@ -76798,59 +76658,71 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
       <c r="E2397" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2397" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2398" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2398" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2398" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2398" t="inlineStr">
@@ -76862,57 +76734,49 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
-      <c r="E2399" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2399" t="inlineStr"/>
       <c r="F2399" t="inlineStr"/>
-      <c r="G2399" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2399" t="inlineStr"/>
       <c r="H2399" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
       <c r="E2400" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2400" t="inlineStr"/>
@@ -76926,23 +76790,23 @@
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
       <c r="E2401" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2401" t="inlineStr"/>
@@ -76956,7 +76820,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -76966,23 +76830,27 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
-      <c r="E2402" t="inlineStr"/>
+      <c r="E2402" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2402" t="inlineStr"/>
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
@@ -76992,11 +76860,15 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
-      <c r="E2403" t="inlineStr"/>
+      <c r="E2403" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2403" t="inlineStr"/>
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
@@ -77008,7 +76880,7 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77018,7 +76890,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77027,14 +76899,14 @@
       <c r="G2404" t="inlineStr"/>
       <c r="H2404" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
@@ -77044,7 +76916,7 @@
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
@@ -77053,14 +76925,14 @@
       <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
@@ -77070,7 +76942,7 @@
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
@@ -77086,65 +76958,49 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
-      <c r="G2407" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
           <t>3</t>
@@ -77154,7 +77010,7 @@
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
@@ -77164,85 +77020,65 @@
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
       <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
-      <c r="G2411" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2411" t="inlineStr"/>
       <c r="H2411" t="inlineStr">
         <is>
           <t>3</t>
@@ -77252,31 +77088,23 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
           <t>3</t>
@@ -77286,29 +77114,25 @@
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
       <c r="G2413" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2413" t="inlineStr">
@@ -77320,91 +77144,83 @@
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2414" t="inlineStr"/>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2414" t="inlineStr"/>
       <c r="H2414" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr"/>
+      <c r="E2416" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2416" t="inlineStr"/>
-      <c r="G2416" t="inlineStr"/>
+      <c r="G2416" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2416" t="inlineStr">
         <is>
           <t>3</t>
@@ -77414,31 +77230,23 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2417" t="inlineStr"/>
       <c r="F2417" t="inlineStr"/>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
           <t>3</t>
@@ -77448,29 +77256,25 @@
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2418" t="inlineStr"/>
       <c r="F2418" t="inlineStr"/>
       <c r="G2418" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2418" t="inlineStr">
@@ -77482,7 +77286,7 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
@@ -77492,73 +77296,49 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
-      <c r="E2419" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2419" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2419" t="inlineStr"/>
+      <c r="F2419" t="inlineStr"/>
+      <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
-      <c r="E2420" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2420" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2420" t="inlineStr"/>
+      <c r="F2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr"/>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
@@ -77568,7 +77348,7 @@
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
@@ -77577,64 +77357,72 @@
       <c r="G2421" t="inlineStr"/>
       <c r="H2421" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
+      <c r="G2422" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2422" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2423">
       <c r="A2423" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
       <c r="E2423" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2423" t="inlineStr">
         <is>
           <t>3</t>
@@ -77644,27 +77432,31 @@
     <row r="2424">
       <c r="A2424" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
       <c r="E2424" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="F2424" t="inlineStr"/>
-      <c r="G2424" t="inlineStr"/>
+      <c r="G2424" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2424" t="inlineStr">
         <is>
           <t>3</t>
@@ -77674,27 +77466,27 @@
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
-      <c r="E2425" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="E2425" t="inlineStr"/>
       <c r="F2425" t="inlineStr"/>
-      <c r="G2425" t="inlineStr"/>
+      <c r="G2425" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2425" t="inlineStr">
         <is>
           <t>3</t>
@@ -77704,17 +77496,17 @@
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
@@ -77723,24 +77515,24 @@
       <c r="G2426" t="inlineStr"/>
       <c r="H2426" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
@@ -77749,24 +77541,24 @@
       <c r="G2427" t="inlineStr"/>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
@@ -77782,47 +77574,59 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2429" t="inlineStr"/>
-      <c r="G2429" t="inlineStr"/>
+      <c r="G2429" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2429" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
@@ -77834,21 +77638,25 @@
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2431" t="inlineStr"/>
       <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr">
@@ -77858,11 +77666,7 @@
       </c>
     </row>
     <row r="2432">
-      <c r="A2432" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2432" t="inlineStr"/>
       <c r="B2432" t="inlineStr">
         <is>
           <t>US</t>
@@ -77870,474 +77674,18 @@
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2432" t="inlineStr"/>
       <c r="G2432" t="inlineStr"/>
       <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2433">
-      <c r="A2433" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2433" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2433" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
-      <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr"/>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2434" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
-        </is>
-      </c>
-      <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
-      <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
-      <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2436">
-      <c r="A2436" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr"/>
-      <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr"/>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr"/>
-      <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr"/>
-      <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
-      <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr"/>
-      <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2442">
-      <c r="A2442" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2442" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2442" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr"/>
-      <c r="F2442" t="inlineStr"/>
-      <c r="G2442" t="inlineStr"/>
-      <c r="H2442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2443">
-      <c r="A2443" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2443" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2443" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr"/>
-      <c r="F2443" t="inlineStr"/>
-      <c r="G2443" t="inlineStr"/>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2444">
-      <c r="A2444" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2444" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2444" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr"/>
-      <c r="G2444" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2445">
-      <c r="A2445" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2445" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2445" t="inlineStr"/>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2446" t="inlineStr"/>
-      <c r="E2446" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr"/>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2448" t="inlineStr"/>
-      <c r="E2448" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr"/>
-      <c r="H2448" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2452"/>
+  <dimension ref="A1:H2432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70795,10 +70795,8 @@
       </c>
       <c r="F2204" t="inlineStr"/>
       <c r="G2204" t="inlineStr"/>
-      <c r="H2204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2205">
@@ -70833,10 +70831,8 @@
           <t>7.0K</t>
         </is>
       </c>
-      <c r="H2205" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2206">
@@ -70867,10 +70863,8 @@
           <t>2.876M</t>
         </is>
       </c>
-      <c r="H2206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2207">
@@ -70905,10 +70899,8 @@
           <t>6.2%</t>
         </is>
       </c>
-      <c r="H2207" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2207" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2208">
@@ -70931,10 +70923,8 @@
       <c r="E2208" t="inlineStr"/>
       <c r="F2208" t="inlineStr"/>
       <c r="G2208" t="inlineStr"/>
-      <c r="H2208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2209">
@@ -70961,10 +70951,8 @@
       </c>
       <c r="F2209" t="inlineStr"/>
       <c r="G2209" t="inlineStr"/>
-      <c r="H2209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2210">
@@ -70991,10 +70979,8 @@
       </c>
       <c r="F2210" t="inlineStr"/>
       <c r="G2210" t="inlineStr"/>
-      <c r="H2210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2211">
@@ -71021,10 +71007,8 @@
       </c>
       <c r="F2211" t="inlineStr"/>
       <c r="G2211" t="inlineStr"/>
-      <c r="H2211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2212">
@@ -71051,10 +71035,8 @@
       </c>
       <c r="F2212" t="inlineStr"/>
       <c r="G2212" t="inlineStr"/>
-      <c r="H2212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2213">
@@ -71081,10 +71063,8 @@
       </c>
       <c r="F2213" t="inlineStr"/>
       <c r="G2213" t="inlineStr"/>
-      <c r="H2213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2214">
@@ -71111,10 +71091,8 @@
       </c>
       <c r="F2214" t="inlineStr"/>
       <c r="G2214" t="inlineStr"/>
-      <c r="H2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -71141,10 +71119,8 @@
       </c>
       <c r="F2215" t="inlineStr"/>
       <c r="G2215" t="inlineStr"/>
-      <c r="H2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -71171,10 +71147,8 @@
       </c>
       <c r="F2216" t="inlineStr"/>
       <c r="G2216" t="inlineStr"/>
-      <c r="H2216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2217">
@@ -71201,10 +71175,8 @@
       </c>
       <c r="F2217" t="inlineStr"/>
       <c r="G2217" t="inlineStr"/>
-      <c r="H2217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2218">
@@ -71231,10 +71203,8 @@
       </c>
       <c r="F2218" t="inlineStr"/>
       <c r="G2218" t="inlineStr"/>
-      <c r="H2218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2219">
@@ -71261,10 +71231,8 @@
       </c>
       <c r="F2219" t="inlineStr"/>
       <c r="G2219" t="inlineStr"/>
-      <c r="H2219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2219" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2220">
@@ -71291,10 +71259,8 @@
       </c>
       <c r="F2220" t="inlineStr"/>
       <c r="G2220" t="inlineStr"/>
-      <c r="H2220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2221">
@@ -71325,10 +71291,8 @@
           <t>€5.0B</t>
         </is>
       </c>
-      <c r="H2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -71359,10 +71323,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -71393,10 +71355,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -71427,10 +71387,8 @@
           <t>INR-9700.0B</t>
         </is>
       </c>
-      <c r="H2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -71461,10 +71419,8 @@
           <t>77.9%</t>
         </is>
       </c>
-      <c r="H2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -71495,10 +71451,8 @@
           <t>BRL-103.0B</t>
         </is>
       </c>
-      <c r="H2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -71525,10 +71479,8 @@
       </c>
       <c r="F2227" t="inlineStr"/>
       <c r="G2227" t="inlineStr"/>
-      <c r="H2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -71555,10 +71507,8 @@
       </c>
       <c r="F2228" t="inlineStr"/>
       <c r="G2228" t="inlineStr"/>
-      <c r="H2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -71585,10 +71535,8 @@
       </c>
       <c r="F2229" t="inlineStr"/>
       <c r="G2229" t="inlineStr"/>
-      <c r="H2229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2230">
@@ -71619,10 +71567,8 @@
           <t>4.8%</t>
         </is>
       </c>
-      <c r="H2230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2231">
@@ -71653,10 +71599,8 @@
           <t>6.1%</t>
         </is>
       </c>
-      <c r="H2231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2232">
@@ -71687,10 +71631,8 @@
           <t>ZAR 27.0B</t>
         </is>
       </c>
-      <c r="H2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2233">
@@ -71725,10 +71667,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2233" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2234">
@@ -71763,10 +71703,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2235">
@@ -71797,10 +71735,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2236">
@@ -71835,10 +71771,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2237">
@@ -71873,10 +71807,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H2237" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2237" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2238">
@@ -71907,10 +71839,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2239">
@@ -71945,10 +71875,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2240">
@@ -71983,10 +71911,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -72021,10 +71947,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2242">
@@ -72055,10 +71979,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2242" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2243">
@@ -72089,10 +72011,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2243" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2243" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2244">
@@ -72127,10 +72047,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2245">
@@ -72153,10 +72071,8 @@
       <c r="E2245" t="inlineStr"/>
       <c r="F2245" t="inlineStr"/>
       <c r="G2245" t="inlineStr"/>
-      <c r="H2245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2246">
@@ -72187,10 +72103,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2247">
@@ -72221,10 +72135,8 @@
           <t>2.6%</t>
         </is>
       </c>
-      <c r="H2247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2248">
@@ -72255,10 +72167,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H2248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2249">
@@ -72293,10 +72203,8 @@
           <t>37.2</t>
         </is>
       </c>
-      <c r="H2249" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2250">
@@ -72327,10 +72235,8 @@
           <t>C$-1.9B</t>
         </is>
       </c>
-      <c r="H2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2251">
@@ -72357,10 +72263,8 @@
       </c>
       <c r="F2251" t="inlineStr"/>
       <c r="G2251" t="inlineStr"/>
-      <c r="H2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2252">
@@ -72387,10 +72291,8 @@
       </c>
       <c r="F2252" t="inlineStr"/>
       <c r="G2252" t="inlineStr"/>
-      <c r="H2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2253">
@@ -72421,10 +72323,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2254">
@@ -72455,10 +72355,8 @@
           <t>$0.9B</t>
         </is>
       </c>
-      <c r="H2254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2255">
@@ -72489,10 +72387,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2256">
@@ -72519,10 +72415,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2256" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2257">
@@ -72549,10 +72443,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2258">
@@ -72579,10 +72471,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2258" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2259">
@@ -72609,10 +72499,8 @@
           <t>-4.0%</t>
         </is>
       </c>
-      <c r="H2259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2260">
@@ -72639,10 +72527,8 @@
           <t>20.7%</t>
         </is>
       </c>
-      <c r="H2260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2261">
@@ -72683,10 +72569,8 @@
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2263">
@@ -72717,10 +72601,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2264">
@@ -72751,10 +72633,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2265">
@@ -72785,10 +72665,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2266">
@@ -72811,10 +72689,8 @@
       <c r="E2266" t="inlineStr"/>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2267">
@@ -72845,10 +72721,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2268">
@@ -72879,10 +72753,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H2268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2269">
@@ -72909,10 +72781,8 @@
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2270">
@@ -72939,10 +72809,8 @@
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2271">
@@ -72973,10 +72841,8 @@
           <t>51.6</t>
         </is>
       </c>
-      <c r="H2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2272">
@@ -73011,10 +72877,8 @@
           <t>48.8</t>
         </is>
       </c>
-      <c r="H2272" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2273">
@@ -73045,10 +72909,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H2273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2274">
@@ -73083,10 +72945,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H2274" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2275">
@@ -73117,10 +72977,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2276">
@@ -73151,10 +73009,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H2276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2277">
@@ -73185,10 +73041,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2278">
@@ -73219,114 +73073,120 @@
           <t>18.0%</t>
         </is>
       </c>
-      <c r="H2278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>Monday February 03 2025</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr"/>
-      <c r="C2279" t="inlineStr"/>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>CPI FlashJAN</t>
+        </is>
+      </c>
       <c r="D2279" t="inlineStr"/>
-      <c r="E2279" t="inlineStr"/>
+      <c r="E2279" t="inlineStr">
+        <is>
+          <t>127.07</t>
+        </is>
+      </c>
       <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr"/>
-      <c r="H2279" t="inlineStr"/>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr">
         <is>
-          <t>HSBC Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2280" t="inlineStr"/>
       <c r="E2280" t="inlineStr">
         <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="F2280" t="inlineStr"/>
+      <c r="G2280" t="inlineStr"/>
       <c r="H2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t>2-Year KTB Auction</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2281" t="inlineStr"/>
       <c r="E2281" t="inlineStr">
         <is>
-          <t>2.670%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2281" t="inlineStr"/>
       <c r="G2281" t="inlineStr"/>
       <c r="H2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="inlineStr">
         <is>
-          <t>12:30 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr">
         <is>
-          <t>Commodity Prices YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2282" t="inlineStr"/>
       <c r="E2282" t="inlineStr">
         <is>
-          <t>-10.7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2282" t="inlineStr"/>
@@ -73340,117 +73200,129 @@
     <row r="2283">
       <c r="A2283" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2283" t="inlineStr"/>
       <c r="E2283" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F2283" t="inlineStr"/>
       <c r="G2283" t="inlineStr"/>
       <c r="H2283" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D2284" t="inlineStr"/>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>$232.2B</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr"/>
-      <c r="G2284" t="inlineStr"/>
+      <c r="G2284" t="inlineStr">
+        <is>
+          <t>$ 230B</t>
+        </is>
+      </c>
       <c r="H2284" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2285" t="inlineStr"/>
       <c r="E2285" t="inlineStr">
         <is>
-          <t>44.38%</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F2285" t="inlineStr"/>
-      <c r="G2285" t="inlineStr"/>
+      <c r="G2285" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H2285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr">
         <is>
-          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
+          <t>SIPMM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2286" t="inlineStr"/>
       <c r="E2286" t="inlineStr">
         <is>
-          <t>49.1</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="F2286" t="inlineStr"/>
-      <c r="G2286" t="inlineStr"/>
+      <c r="G2286" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
       <c r="H2286" t="inlineStr">
         <is>
           <t>3</t>
@@ -73460,55 +73332,47 @@
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2287" t="inlineStr"/>
-      <c r="E2287" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="E2287" t="inlineStr"/>
       <c r="F2287" t="inlineStr"/>
       <c r="G2287" t="inlineStr"/>
       <c r="H2287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr">
-        <is>
-          <t>28.52%</t>
-        </is>
-      </c>
+      <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr"/>
       <c r="H2288" t="inlineStr">
@@ -73520,47 +73384,43 @@
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr">
-        <is>
-          <t>-25.3K</t>
-        </is>
-      </c>
+      <c r="E2289" t="inlineStr"/>
       <c r="F2289" t="inlineStr"/>
       <c r="G2289" t="inlineStr"/>
       <c r="H2289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D2290" t="inlineStr"/>
@@ -73576,23 +73436,23 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2291" t="inlineStr"/>
@@ -73606,27 +73466,35 @@
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMIJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2292" t="inlineStr"/>
       <c r="E2292" t="inlineStr">
         <is>
-          <t>46.2</t>
-        </is>
-      </c>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr"/>
+          <t>49.4</t>
+        </is>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
+      <c r="G2292" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="H2292" t="inlineStr">
         <is>
           <t>2</t>
@@ -73636,73 +73504,57 @@
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2293" t="inlineStr"/>
       <c r="E2293" t="inlineStr">
         <is>
-          <t>41.9</t>
-        </is>
-      </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2293" t="inlineStr"/>
+      <c r="G2293" t="inlineStr"/>
       <c r="H2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2294">
       <c r="A2294" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing EmploymentJAN</t>
         </is>
       </c>
       <c r="D2294" t="inlineStr"/>
       <c r="E2294" t="inlineStr">
         <is>
-          <t>42.5</t>
-        </is>
-      </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="F2294" t="inlineStr"/>
+      <c r="G2294" t="inlineStr"/>
       <c r="H2294" t="inlineStr">
         <is>
           <t>2</t>
@@ -73712,69 +73564,57 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr">
         <is>
-          <t>HCOB Manufacturing PMI FinalJAN</t>
+          <t>Construction Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2295" t="inlineStr"/>
       <c r="E2295" t="inlineStr">
         <is>
-          <t>45.1</t>
-        </is>
-      </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>46.1</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>46.1</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2295" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2296">
       <c r="A2296" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t>ABSA Manufacturing PMIJAN</t>
+          <t>ISM Manufacturing New OrdersJAN</t>
         </is>
       </c>
       <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr">
-        <is>
-          <t>46.2</t>
-        </is>
-      </c>
+      <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
+      <c r="G2296" t="inlineStr"/>
       <c r="H2296" t="inlineStr">
         <is>
           <t>3</t>
@@ -73784,55 +73624,43 @@
     <row r="2297">
       <c r="A2297" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>ISM Manufacturing PricesJAN</t>
         </is>
       </c>
       <c r="D2297" t="inlineStr"/>
-      <c r="E2297" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2297" t="inlineStr"/>
+      <c r="F2297" t="inlineStr"/>
+      <c r="G2297" t="inlineStr"/>
       <c r="H2297" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FlashJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2298" t="inlineStr"/>
@@ -73841,54 +73669,50 @@
       <c r="G2298" t="inlineStr"/>
       <c r="H2298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FlashJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2299" t="inlineStr"/>
-      <c r="E2299" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="E2299" t="inlineStr"/>
       <c r="F2299" t="inlineStr"/>
       <c r="G2299" t="inlineStr"/>
       <c r="H2299" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FlashJAN</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="D2300" t="inlineStr"/>
@@ -73897,30 +73721,30 @@
       <c r="G2300" t="inlineStr"/>
       <c r="H2300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2301">
       <c r="A2301" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>CPI FlashJAN</t>
+          <t>Tax RevenueJAN</t>
         </is>
       </c>
       <c r="D2301" t="inlineStr"/>
       <c r="E2301" t="inlineStr">
         <is>
-          <t>127.07</t>
+          <t>ARS13015B</t>
         </is>
       </c>
       <c r="F2301" t="inlineStr"/>
@@ -73934,87 +73758,87 @@
     <row r="2302">
       <c r="A2302" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>10-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2302" t="inlineStr"/>
       <c r="E2302" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>1.140%</t>
         </is>
       </c>
       <c r="F2302" t="inlineStr"/>
       <c r="G2302" t="inlineStr"/>
       <c r="H2302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>11:15 PM</t>
         </is>
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Riyad Bank PMIJAN</t>
         </is>
       </c>
       <c r="D2303" t="inlineStr"/>
       <c r="E2303" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.4</t>
         </is>
       </c>
       <c r="F2303" t="inlineStr"/>
       <c r="G2303" t="inlineStr"/>
       <c r="H2303" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
+      <c r="A2304" t="inlineStr"/>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>Total New Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>41.27K</t>
         </is>
       </c>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>43.0K</t>
+        </is>
+      </c>
       <c r="H2304" t="inlineStr">
         <is>
           <t>3</t>
@@ -74024,61 +73848,37 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
-        </is>
-      </c>
+          <t>Tuesday February 04 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
+      <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr"/>
-      <c r="E2305" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
       <c r="G2305" t="inlineStr"/>
-      <c r="H2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr">
-        <is>
-          <t>$232.2B</t>
-        </is>
-      </c>
+      <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>$ 230B</t>
-        </is>
-      </c>
+      <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
         <is>
           <t>3</t>
@@ -74088,31 +73888,23 @@
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+      <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr"/>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
         <is>
           <t>3</t>
@@ -74122,31 +73914,27 @@
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t>SIPMM Manufacturing PMIJAN</t>
+          <t>30-Year KTB Auction</t>
         </is>
       </c>
       <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.705%</t>
         </is>
       </c>
       <c r="F2308" t="inlineStr"/>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+      <c r="G2308" t="inlineStr"/>
       <c r="H2308" t="inlineStr">
         <is>
           <t>3</t>
@@ -74156,47 +73944,55 @@
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2309" t="inlineStr"/>
-      <c r="E2309" t="inlineStr"/>
+      <c r="E2309" t="inlineStr">
+        <is>
+          <t>€-172.5B</t>
+        </is>
+      </c>
       <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr"/>
       <c r="H2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>IPC-Fipe Inflation MoMJAN</t>
         </is>
       </c>
       <c r="D2310" t="inlineStr"/>
-      <c r="E2310" t="inlineStr"/>
+      <c r="E2310" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
+      </c>
       <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr"/>
       <c r="H2310" t="inlineStr">
@@ -74208,17 +74004,17 @@
     <row r="2311">
       <c r="A2311" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>5-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D2311" t="inlineStr"/>
@@ -74234,17 +74030,17 @@
     <row r="2312">
       <c r="A2312" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>BCB Copom Meeting Minutes</t>
         </is>
       </c>
       <c r="D2312" t="inlineStr"/>
@@ -74253,112 +74049,112 @@
       <c r="G2312" t="inlineStr"/>
       <c r="H2312" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2313">
       <c r="A2313" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2313" t="inlineStr"/>
       <c r="E2313" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F2313" t="inlineStr"/>
-      <c r="G2313" t="inlineStr"/>
+      <c r="G2313" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2314">
       <c r="A2314" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2314" t="inlineStr"/>
       <c r="E2314" t="inlineStr">
         <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+          <t>7.59%</t>
+        </is>
+      </c>
+      <c r="F2314" t="inlineStr"/>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="H2314" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIJAN</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2315" t="inlineStr"/>
       <c r="E2315" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2315" t="inlineStr"/>
       <c r="G2315" t="inlineStr"/>
       <c r="H2315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:55 AM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
@@ -74368,20 +74164,16 @@
       </c>
       <c r="C2316" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentJAN</t>
+          <t>Redbook YoYFEB/01</t>
         </is>
       </c>
       <c r="D2316" t="inlineStr"/>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr"/>
       <c r="G2316" t="inlineStr"/>
       <c r="H2316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -74393,26 +74185,22 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t>Construction Spending MoMDEC</t>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2317" t="inlineStr"/>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr"/>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2317" t="inlineStr"/>
       <c r="H2317" t="inlineStr">
         <is>
           <t>3</t>
@@ -74432,16 +74220,20 @@
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersJAN</t>
+          <t>JOLTs Job OpeningsDEC</t>
         </is>
       </c>
       <c r="D2318" t="inlineStr"/>
       <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr"/>
-      <c r="G2318" t="inlineStr"/>
+      <c r="G2318" t="inlineStr">
+        <is>
+          <t>7.6M</t>
+        </is>
+      </c>
       <c r="H2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -74458,23 +74250,31 @@
       </c>
       <c r="C2319" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesJAN</t>
+          <t>Factory Orders MoMDEC</t>
         </is>
       </c>
       <c r="D2319" t="inlineStr"/>
-      <c r="E2319" t="inlineStr"/>
+      <c r="E2319" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="F2319" t="inlineStr"/>
-      <c r="G2319" t="inlineStr"/>
+      <c r="G2319" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
@@ -74484,13 +74284,21 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Factory Orders ex TransportationDEC</t>
         </is>
       </c>
       <c r="D2320" t="inlineStr"/>
-      <c r="E2320" t="inlineStr"/>
+      <c r="E2320" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2320" t="inlineStr"/>
-      <c r="G2320" t="inlineStr"/>
+      <c r="G2320" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="H2320" t="inlineStr">
         <is>
           <t>3</t>
@@ -74500,7 +74308,7 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
@@ -74510,7 +74318,7 @@
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>JOLTs Job QuitsDEC</t>
         </is>
       </c>
       <c r="D2321" t="inlineStr"/>
@@ -74526,7 +74334,7 @@
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>10:10 AM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
@@ -74536,11 +74344,15 @@
       </c>
       <c r="C2322" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>RCM/TIPP Economic Optimism IndexFEB</t>
         </is>
       </c>
       <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
       <c r="F2322" t="inlineStr"/>
       <c r="G2322" t="inlineStr"/>
       <c r="H2322" t="inlineStr">
@@ -74552,55 +74364,47 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t>Tax RevenueJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr">
-        <is>
-          <t>ARS13015B</t>
-        </is>
-      </c>
+      <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
       <c r="G2323" t="inlineStr"/>
       <c r="H2323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2324" t="inlineStr">
         <is>
-          <t>10-Year JGB Auction</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr">
-        <is>
-          <t>1.140%</t>
-        </is>
-      </c>
+      <c r="E2324" t="inlineStr"/>
       <c r="F2324" t="inlineStr"/>
       <c r="G2324" t="inlineStr"/>
       <c r="H2324" t="inlineStr">
@@ -74612,121 +74416,133 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>11:15 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2325" t="inlineStr">
         <is>
-          <t>Riyad Bank PMIJAN</t>
+          <t>API Crude Oil Stock ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr">
-        <is>
-          <t>58.4</t>
-        </is>
-      </c>
+      <c r="E2325" t="inlineStr"/>
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
       <c r="H2325" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2326">
-      <c r="A2326" t="inlineStr"/>
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>05:00 PM</t>
+        </is>
+      </c>
       <c r="B2326" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t>Total New Vehicle SalesJAN</t>
+          <t>Judo Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2326" t="inlineStr"/>
-      <c r="E2326" t="inlineStr">
-        <is>
-          <t>41.27K</t>
-        </is>
-      </c>
+      <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr">
-        <is>
-          <t>43.0K</t>
-        </is>
-      </c>
+      <c r="G2326" t="inlineStr"/>
       <c r="H2326" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2327">
       <c r="A2327" t="inlineStr">
         <is>
-          <t>Tuesday February 04 2025</t>
-        </is>
-      </c>
-      <c r="B2327" t="inlineStr"/>
-      <c r="C2327" t="inlineStr"/>
+          <t>05:00 PM</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2327" t="inlineStr"/>
       <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr"/>
-      <c r="H2327" t="inlineStr"/>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2328">
       <c r="A2328" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2328" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2328" t="inlineStr"/>
-      <c r="E2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr"/>
       <c r="H2328" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2329">
       <c r="A2329" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2329" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2329" t="inlineStr"/>
-      <c r="E2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2329" t="inlineStr"/>
       <c r="G2329" t="inlineStr"/>
       <c r="H2329" t="inlineStr">
@@ -74738,27 +74554,27 @@
     <row r="2330">
       <c r="A2330" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2330" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2330" t="inlineStr">
         <is>
-          <t>30-Year KTB Auction</t>
+          <t>Average Cash Earnings YoYDEC</t>
         </is>
       </c>
       <c r="D2330" t="inlineStr"/>
-      <c r="E2330" t="inlineStr">
-        <is>
-          <t>2.705%</t>
-        </is>
-      </c>
+      <c r="E2330" t="inlineStr"/>
       <c r="F2330" t="inlineStr"/>
-      <c r="G2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>2.1%</t>
+        </is>
+      </c>
       <c r="H2330" t="inlineStr">
         <is>
           <t>3</t>
@@ -74768,23 +74584,23 @@
     <row r="2331">
       <c r="A2331" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2331" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2331" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>TD-MI Inflation Gauge MoMJAN</t>
         </is>
       </c>
       <c r="D2331" t="inlineStr"/>
       <c r="E2331" t="inlineStr">
         <is>
-          <t>€-172.5B</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2331" t="inlineStr"/>
@@ -74798,53 +74614,69 @@
     <row r="2332">
       <c r="A2332" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2332" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t>IPC-Fipe Inflation MoMJAN</t>
+          <t>Jibun Bank Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2332" t="inlineStr"/>
       <c r="E2332" t="inlineStr">
         <is>
-          <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F2332" t="inlineStr"/>
-      <c r="G2332" t="inlineStr"/>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G2332" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="H2332" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2333" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2333" t="inlineStr">
         <is>
-          <t>5-Year Treasury Gilt Auction</t>
+          <t>Jibun Bank Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2333" t="inlineStr"/>
-      <c r="E2333" t="inlineStr"/>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>50.5</t>
+        </is>
+      </c>
       <c r="F2333" t="inlineStr"/>
-      <c r="G2333" t="inlineStr"/>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="H2333" t="inlineStr">
         <is>
           <t>3</t>
@@ -74854,89 +74686,93 @@
     <row r="2334">
       <c r="A2334" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2334" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2334" t="inlineStr">
         <is>
-          <t>BCB Copom Meeting Minutes</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2334" t="inlineStr"/>
-      <c r="E2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr">
+        <is>
+          <t>51.5</t>
+        </is>
+      </c>
       <c r="F2334" t="inlineStr"/>
       <c r="G2334" t="inlineStr"/>
       <c r="H2334" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2335">
       <c r="A2335" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2335" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Caixin Services PMIJAN</t>
         </is>
       </c>
       <c r="D2335" t="inlineStr"/>
       <c r="E2335" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="F2335" t="inlineStr"/>
       <c r="G2335" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="H2335" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2336">
       <c r="A2336" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 PM</t>
         </is>
       </c>
       <c r="B2336" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2336" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Caixin Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2336" t="inlineStr"/>
       <c r="E2336" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2336" t="inlineStr"/>
       <c r="G2336" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="H2336" t="inlineStr">
@@ -74948,27 +74784,27 @@
     <row r="2337">
       <c r="A2337" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2337" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2337" t="inlineStr">
         <is>
-          <t>Business ConfidenceJAN</t>
+          <t>GDP Growth Rate YoYQ4</t>
         </is>
       </c>
       <c r="D2337" t="inlineStr"/>
-      <c r="E2337" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="E2337" t="inlineStr"/>
       <c r="F2337" t="inlineStr"/>
-      <c r="G2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2337" t="inlineStr">
         <is>
           <t>2</t>
@@ -74978,23 +74814,27 @@
     <row r="2338">
       <c r="A2338" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2338" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/01</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D2338" t="inlineStr"/>
       <c r="E2338" t="inlineStr"/>
       <c r="F2338" t="inlineStr"/>
-      <c r="G2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
       <c r="H2338" t="inlineStr">
         <is>
           <t>3</t>
@@ -75004,27 +74844,27 @@
     <row r="2339">
       <c r="A2339" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B2339" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>GDP Growth Rate QoQQ4</t>
         </is>
       </c>
       <c r="D2339" t="inlineStr"/>
-      <c r="E2339" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="E2339" t="inlineStr"/>
       <c r="F2339" t="inlineStr"/>
-      <c r="G2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2339" t="inlineStr">
         <is>
           <t>3</t>
@@ -75032,97 +74872,65 @@
       </c>
     </row>
     <row r="2340">
-      <c r="A2340" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2340" t="inlineStr"/>
       <c r="B2340" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsDEC</t>
+          <t>Balance of Trade PrelJAN</t>
         </is>
       </c>
       <c r="D2340" t="inlineStr"/>
       <c r="E2340" t="inlineStr"/>
       <c r="F2340" t="inlineStr"/>
-      <c r="G2340" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
+      <c r="G2340" t="inlineStr"/>
       <c r="H2340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2341">
-      <c r="A2341" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2341" t="inlineStr"/>
       <c r="B2341" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t>Factory Orders MoMDEC</t>
+          <t>Exports PrelJAN</t>
         </is>
       </c>
       <c r="D2341" t="inlineStr"/>
-      <c r="E2341" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="E2341" t="inlineStr"/>
       <c r="F2341" t="inlineStr"/>
-      <c r="G2341" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2341" t="inlineStr"/>
       <c r="H2341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2342">
-      <c r="A2342" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2342" t="inlineStr"/>
       <c r="B2342" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2342" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationDEC</t>
+          <t>Imports PrelJAN</t>
         </is>
       </c>
       <c r="D2342" t="inlineStr"/>
-      <c r="E2342" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="E2342" t="inlineStr"/>
       <c r="F2342" t="inlineStr"/>
-      <c r="G2342" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G2342" t="inlineStr"/>
       <c r="H2342" t="inlineStr">
         <is>
           <t>3</t>
@@ -75130,11 +74938,7 @@
       </c>
     </row>
     <row r="2343">
-      <c r="A2343" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2343" t="inlineStr"/>
       <c r="B2343" t="inlineStr">
         <is>
           <t>US</t>
@@ -75142,11 +74946,15 @@
       </c>
       <c r="C2343" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsDEC</t>
+          <t>LMI Logistics Managers IndexJAN</t>
         </is>
       </c>
       <c r="D2343" t="inlineStr"/>
-      <c r="E2343" t="inlineStr"/>
+      <c r="E2343" t="inlineStr">
+        <is>
+          <t>57.3</t>
+        </is>
+      </c>
       <c r="F2343" t="inlineStr"/>
       <c r="G2343" t="inlineStr"/>
       <c r="H2343" t="inlineStr">
@@ -75158,79 +74966,87 @@
     <row r="2344">
       <c r="A2344" t="inlineStr">
         <is>
-          <t>10:10 AM</t>
-        </is>
-      </c>
-      <c r="B2344" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2344" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexFEB</t>
-        </is>
-      </c>
+          <t>Wednesday February 05 2025</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr"/>
+      <c r="C2344" t="inlineStr"/>
       <c r="D2344" t="inlineStr"/>
-      <c r="E2344" t="inlineStr">
-        <is>
-          <t>51.9</t>
-        </is>
-      </c>
+      <c r="E2344" t="inlineStr"/>
       <c r="F2344" t="inlineStr"/>
       <c r="G2344" t="inlineStr"/>
-      <c r="H2344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2344" t="inlineStr"/>
     </row>
     <row r="2345">
       <c r="A2345" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2345" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2345" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>HSBC Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2345" t="inlineStr"/>
-      <c r="E2345" t="inlineStr"/>
-      <c r="F2345" t="inlineStr"/>
-      <c r="G2345" t="inlineStr"/>
+      <c r="E2345" t="inlineStr">
+        <is>
+          <t>59.2</t>
+        </is>
+      </c>
+      <c r="F2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
+      <c r="G2345" t="inlineStr">
+        <is>
+          <t>57.9</t>
+        </is>
+      </c>
       <c r="H2345" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2346" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2346" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>HSBC Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2346" t="inlineStr"/>
-      <c r="E2346" t="inlineStr"/>
-      <c r="F2346" t="inlineStr"/>
-      <c r="G2346" t="inlineStr"/>
+      <c r="E2346" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="F2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="G2346" t="inlineStr">
+        <is>
+          <t>56.8</t>
+        </is>
+      </c>
       <c r="H2346" t="inlineStr">
         <is>
           <t>3</t>
@@ -75240,73 +75056,93 @@
     <row r="2347">
       <c r="A2347" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2347" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/31</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2347" t="inlineStr"/>
-      <c r="E2347" t="inlineStr"/>
+      <c r="E2347" t="inlineStr">
+        <is>
+          <t>-2.8%</t>
+        </is>
+      </c>
       <c r="F2347" t="inlineStr"/>
-      <c r="G2347" t="inlineStr"/>
+      <c r="G2347" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2348">
       <c r="A2348" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B2348" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2348" t="inlineStr">
         <is>
-          <t>Judo Bank Services PMI FinalJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2348" t="inlineStr"/>
-      <c r="E2348" t="inlineStr"/>
+      <c r="E2348" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="F2348" t="inlineStr"/>
-      <c r="G2348" t="inlineStr"/>
+      <c r="G2348" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="H2348" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2349">
       <c r="A2349" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2349" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2349" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2349" t="inlineStr"/>
-      <c r="E2349" t="inlineStr"/>
+      <c r="E2349" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
       <c r="F2349" t="inlineStr"/>
       <c r="G2349" t="inlineStr"/>
       <c r="H2349" t="inlineStr">
@@ -75318,53 +75154,53 @@
     <row r="2350">
       <c r="A2350" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B2350" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2350" t="inlineStr"/>
       <c r="E2350" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="F2350" t="inlineStr"/>
       <c r="G2350" t="inlineStr"/>
       <c r="H2350" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2351">
       <c r="A2351" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:15 AM</t>
         </is>
       </c>
       <c r="B2351" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2351" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>S&amp;P Global PMIJAN</t>
         </is>
       </c>
       <c r="D2351" t="inlineStr"/>
       <c r="E2351" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="F2351" t="inlineStr"/>
@@ -75378,191 +75214,187 @@
     <row r="2352">
       <c r="A2352" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B2352" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2352" t="inlineStr">
         <is>
-          <t>Average Cash Earnings YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="D2352" t="inlineStr"/>
-      <c r="E2352" t="inlineStr"/>
+      <c r="E2352" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2352" t="inlineStr"/>
       <c r="G2352" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2352" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2353">
       <c r="A2353" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2353" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2353" t="inlineStr"/>
       <c r="E2353" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>57.3</t>
         </is>
       </c>
       <c r="F2353" t="inlineStr"/>
       <c r="G2353" t="inlineStr"/>
       <c r="H2353" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2354">
       <c r="A2354" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2354" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2354" t="inlineStr">
         <is>
-          <t>Jibun Bank Services PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2354" t="inlineStr"/>
       <c r="E2354" t="inlineStr">
         <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="F2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G2354" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2354" t="inlineStr"/>
+      <c r="G2354" t="inlineStr"/>
       <c r="H2354" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2355" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2355" t="inlineStr">
         <is>
-          <t>Jibun Bank Composite PMI FinalJAN</t>
+          <t>HCOB Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2355" t="inlineStr"/>
       <c r="E2355" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="F2355" t="inlineStr"/>
-      <c r="G2355" t="inlineStr">
-        <is>
-          <t>51.1</t>
-        </is>
-      </c>
+      <c r="G2355" t="inlineStr"/>
       <c r="H2355" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2356">
       <c r="A2356" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2356" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>HCOB Services PMIJAN</t>
         </is>
       </c>
       <c r="D2356" t="inlineStr"/>
       <c r="E2356" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="F2356" t="inlineStr"/>
       <c r="G2356" t="inlineStr"/>
       <c r="H2356" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2357">
       <c r="A2357" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2357" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2357" t="inlineStr">
         <is>
-          <t>Caixin Services PMIJAN</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2357" t="inlineStr"/>
       <c r="E2357" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="F2357" t="inlineStr"/>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="F2357" t="inlineStr">
+        <is>
+          <t>48.9</t>
+        </is>
+      </c>
       <c r="G2357" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>48.9</t>
         </is>
       </c>
       <c r="H2357" t="inlineStr">
@@ -75574,29 +75406,33 @@
     <row r="2358">
       <c r="A2358" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2358" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2358" t="inlineStr">
         <is>
-          <t>Caixin Composite PMIJAN</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2358" t="inlineStr"/>
       <c r="E2358" t="inlineStr">
         <is>
-          <t>51.4</t>
-        </is>
-      </c>
-      <c r="F2358" t="inlineStr"/>
+          <t>47.5</t>
+        </is>
+      </c>
+      <c r="F2358" t="inlineStr">
+        <is>
+          <t>48.3</t>
+        </is>
+      </c>
       <c r="G2358" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="H2358" t="inlineStr">
@@ -75608,25 +75444,33 @@
     <row r="2359">
       <c r="A2359" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2359" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t>GDP Growth Rate YoYQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2359" t="inlineStr"/>
-      <c r="E2359" t="inlineStr"/>
-      <c r="F2359" t="inlineStr"/>
+      <c r="E2359" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F2359" t="inlineStr">
+        <is>
+          <t>50.1</t>
+        </is>
+      </c>
       <c r="G2359" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="H2359" t="inlineStr">
@@ -75638,149 +75482,213 @@
     <row r="2360">
       <c r="A2360" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2360" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2360" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>HCOB Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2360" t="inlineStr"/>
-      <c r="E2360" t="inlineStr"/>
-      <c r="F2360" t="inlineStr"/>
+      <c r="E2360" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="F2360" t="inlineStr">
+        <is>
+          <t>52.5</t>
+        </is>
+      </c>
       <c r="G2360" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="H2360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2361">
       <c r="A2361" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2361" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2361" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQQ4</t>
+          <t>HCOB Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2361" t="inlineStr"/>
-      <c r="E2361" t="inlineStr"/>
-      <c r="F2361" t="inlineStr"/>
+      <c r="E2361" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
+      <c r="F2361" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
       <c r="G2361" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="H2361" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>HCOB Services PMI FinalJAN</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr"/>
+      <c r="E2362" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2362" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="G2362" t="inlineStr">
+        <is>
+          <t>51.4</t>
+        </is>
+      </c>
+      <c r="H2362" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr"/>
+      <c r="E2363" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
+      <c r="F2363" t="inlineStr"/>
+      <c r="G2363" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="H2363" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr"/>
+      <c r="E2364" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="F2364" t="inlineStr"/>
+      <c r="G2364" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="H2364" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="2362">
-      <c r="A2362" t="inlineStr"/>
-      <c r="B2362" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2362" t="inlineStr">
-        <is>
-          <t>Balance of Trade PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2362" t="inlineStr"/>
-      <c r="E2362" t="inlineStr"/>
-      <c r="F2362" t="inlineStr"/>
-      <c r="G2362" t="inlineStr"/>
-      <c r="H2362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2363">
-      <c r="A2363" t="inlineStr"/>
-      <c r="B2363" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2363" t="inlineStr">
-        <is>
-          <t>Exports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2363" t="inlineStr"/>
-      <c r="E2363" t="inlineStr"/>
-      <c r="F2363" t="inlineStr"/>
-      <c r="G2363" t="inlineStr"/>
-      <c r="H2363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2364">
-      <c r="A2364" t="inlineStr"/>
-      <c r="B2364" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C2364" t="inlineStr">
-        <is>
-          <t>Imports PrelJAN</t>
-        </is>
-      </c>
-      <c r="D2364" t="inlineStr"/>
-      <c r="E2364" t="inlineStr"/>
-      <c r="F2364" t="inlineStr"/>
-      <c r="G2364" t="inlineStr"/>
-      <c r="H2364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
     <row r="2365">
-      <c r="A2365" t="inlineStr"/>
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>04:00 AM</t>
+        </is>
+      </c>
       <c r="B2365" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexJAN</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2365" t="inlineStr"/>
       <c r="E2365" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="F2365" t="inlineStr"/>
-      <c r="G2365" t="inlineStr"/>
+      <c r="G2365" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
       <c r="H2365" t="inlineStr">
         <is>
           <t>3</t>
@@ -75790,47 +75698,67 @@
     <row r="2366">
       <c r="A2366" t="inlineStr">
         <is>
-          <t>Wednesday February 05 2025</t>
-        </is>
-      </c>
-      <c r="B2366" t="inlineStr"/>
-      <c r="C2366" t="inlineStr"/>
+          <t>04:30 AM</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
+        </is>
+      </c>
       <c r="D2366" t="inlineStr"/>
-      <c r="E2366" t="inlineStr"/>
-      <c r="F2366" t="inlineStr"/>
-      <c r="G2366" t="inlineStr"/>
-      <c r="H2366" t="inlineStr"/>
+      <c r="E2366" t="inlineStr">
+        <is>
+          <t>51.1</t>
+        </is>
+      </c>
+      <c r="F2366" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="G2366" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="H2366" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2367">
       <c r="A2367" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2367" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2367" t="inlineStr">
         <is>
-          <t>HSBC Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2367" t="inlineStr"/>
       <c r="E2367" t="inlineStr">
         <is>
-          <t>59.2</t>
-        </is>
-      </c>
-      <c r="F2367" t="inlineStr">
-        <is>
-          <t>57.9</t>
-        </is>
-      </c>
+          <t>50.4</t>
+        </is>
+      </c>
+      <c r="F2367" t="inlineStr"/>
       <c r="G2367" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="H2367" t="inlineStr">
@@ -75842,33 +75770,29 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2368" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>HSBC Services PMI FinalJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2368" t="inlineStr"/>
       <c r="E2368" t="inlineStr">
         <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="F2368" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
+          <t>1.6%</t>
+        </is>
+      </c>
+      <c r="F2368" t="inlineStr"/>
       <c r="G2368" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2368" t="inlineStr">
@@ -75880,29 +75804,29 @@
     <row r="2369">
       <c r="A2369" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2369" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2369" t="inlineStr"/>
       <c r="E2369" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F2369" t="inlineStr"/>
       <c r="G2369" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="H2369" t="inlineStr">
@@ -75914,31 +75838,27 @@
     <row r="2370">
       <c r="A2370" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2370" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2370" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>30-Year Green Gilt Auction</t>
         </is>
       </c>
       <c r="D2370" t="inlineStr"/>
       <c r="E2370" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>4.831%</t>
         </is>
       </c>
       <c r="F2370" t="inlineStr"/>
-      <c r="G2370" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="G2370" t="inlineStr"/>
       <c r="H2370" t="inlineStr">
         <is>
           <t>3</t>
@@ -75948,23 +75868,23 @@
     <row r="2371">
       <c r="A2371" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2371" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2371" t="inlineStr"/>
       <c r="E2371" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>2.615%</t>
         </is>
       </c>
       <c r="F2371" t="inlineStr"/>
@@ -75978,23 +75898,23 @@
     <row r="2372">
       <c r="A2372" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>06:10 AM</t>
         </is>
       </c>
       <c r="B2372" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C2372" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2372" t="inlineStr"/>
       <c r="E2372" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.505%</t>
         </is>
       </c>
       <c r="F2372" t="inlineStr"/>
@@ -76008,23 +75928,23 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>02:15 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B2373" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2373" t="inlineStr">
         <is>
-          <t>S&amp;P Global PMIJAN</t>
+          <t>M3 Money Supply YoYJAN/24</t>
         </is>
       </c>
       <c r="D2373" t="inlineStr"/>
       <c r="E2373" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>10.1%</t>
         </is>
       </c>
       <c r="F2373" t="inlineStr"/>
@@ -76038,12 +75958,12 @@
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2374" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2374" t="inlineStr">
@@ -76054,13 +75974,13 @@
       <c r="D2374" t="inlineStr"/>
       <c r="E2374" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2374" t="inlineStr"/>
       <c r="G2374" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2374" t="inlineStr">
@@ -76072,53 +75992,57 @@
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2375" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2375" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2375" t="inlineStr"/>
       <c r="E2375" t="inlineStr">
         <is>
-          <t>57.3</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F2375" t="inlineStr"/>
-      <c r="G2375" t="inlineStr"/>
+      <c r="G2375" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2375" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>03:15 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2376" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2376" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment MoMNOV</t>
         </is>
       </c>
       <c r="D2376" t="inlineStr"/>
       <c r="E2376" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2376" t="inlineStr"/>
@@ -76132,55 +76056,51 @@
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2377" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t>HCOB Composite PMIJAN</t>
+          <t>Gross Fixed Investment YoYNOV</t>
         </is>
       </c>
       <c r="D2377" t="inlineStr"/>
       <c r="E2377" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="F2377" t="inlineStr"/>
       <c r="G2377" t="inlineStr"/>
       <c r="H2377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>03:45 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2378" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2378" t="inlineStr">
         <is>
-          <t>HCOB Services PMIJAN</t>
+          <t>MBA 30-Year Mortgage RateJAN/31</t>
         </is>
       </c>
       <c r="D2378" t="inlineStr"/>
-      <c r="E2378" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+      <c r="E2378" t="inlineStr"/>
       <c r="F2378" t="inlineStr"/>
       <c r="G2378" t="inlineStr"/>
       <c r="H2378" t="inlineStr">
@@ -76192,73 +76112,49 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2379" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2379" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Mortgage ApplicationsJAN/31</t>
         </is>
       </c>
       <c r="D2379" t="inlineStr"/>
-      <c r="E2379" t="inlineStr">
-        <is>
-          <t>49.3</t>
-        </is>
-      </c>
-      <c r="F2379" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
-      <c r="G2379" t="inlineStr">
-        <is>
-          <t>48.9</t>
-        </is>
-      </c>
+      <c r="E2379" t="inlineStr"/>
+      <c r="F2379" t="inlineStr"/>
+      <c r="G2379" t="inlineStr"/>
       <c r="H2379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>03:50 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2380" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Market IndexJAN/31</t>
         </is>
       </c>
       <c r="D2380" t="inlineStr"/>
-      <c r="E2380" t="inlineStr">
-        <is>
-          <t>47.5</t>
-        </is>
-      </c>
-      <c r="F2380" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
-      <c r="G2380" t="inlineStr">
-        <is>
-          <t>48.3</t>
-        </is>
-      </c>
+      <c r="E2380" t="inlineStr"/>
+      <c r="F2380" t="inlineStr"/>
+      <c r="G2380" t="inlineStr"/>
       <c r="H2380" t="inlineStr">
         <is>
           <t>3</t>
@@ -76268,106 +76164,78 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2381" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2381" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>MBA Mortgage Refinance IndexJAN/31</t>
         </is>
       </c>
       <c r="D2381" t="inlineStr"/>
-      <c r="E2381" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="F2381" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="G2381" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
+      <c r="E2381" t="inlineStr"/>
+      <c r="F2381" t="inlineStr"/>
+      <c r="G2381" t="inlineStr"/>
       <c r="H2381" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>03:55 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2382" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2382" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>MBA Purchase IndexJAN/31</t>
         </is>
       </c>
       <c r="D2382" t="inlineStr"/>
-      <c r="E2382" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2382" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
-      <c r="G2382" t="inlineStr">
-        <is>
-          <t>52.5</t>
-        </is>
-      </c>
+      <c r="E2382" t="inlineStr"/>
+      <c r="F2382" t="inlineStr"/>
+      <c r="G2382" t="inlineStr"/>
       <c r="H2382" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2383" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t>HCOB Composite PMI FinalJAN</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2383" t="inlineStr"/>
       <c r="E2383" t="inlineStr">
         <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="F2383" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F2383" t="inlineStr"/>
       <c r="G2383" t="inlineStr">
         <is>
           <t>50.2</t>
@@ -76382,69 +76250,61 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2384" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2384" t="inlineStr">
         <is>
-          <t>HCOB Services PMI FinalJAN</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2384" t="inlineStr"/>
       <c r="E2384" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F2384" t="inlineStr">
-        <is>
-          <t>51.4</t>
-        </is>
-      </c>
+          <t>51.5</t>
+        </is>
+      </c>
+      <c r="F2384" t="inlineStr"/>
       <c r="G2384" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H2384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B2385" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2385" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>ADP Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2385" t="inlineStr"/>
       <c r="E2385" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>122K</t>
         </is>
       </c>
       <c r="F2385" t="inlineStr"/>
-      <c r="G2385" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2385" t="inlineStr"/>
       <c r="H2385" t="inlineStr">
         <is>
           <t>2</t>
@@ -76454,63 +76314,63 @@
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2386" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2386" t="inlineStr"/>
       <c r="E2386" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>C$-0.32B</t>
         </is>
       </c>
       <c r="F2386" t="inlineStr"/>
       <c r="G2386" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>C$ -1.6B</t>
         </is>
       </c>
       <c r="H2386" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2387" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>New Car Sales YoYJAN</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2387" t="inlineStr"/>
       <c r="E2387" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>C$66.11B</t>
         </is>
       </c>
       <c r="F2387" t="inlineStr"/>
       <c r="G2387" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>C$ 65.8B</t>
         </is>
       </c>
       <c r="H2387" t="inlineStr">
@@ -76522,165 +76382,157 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2388" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2388" t="inlineStr"/>
       <c r="E2388" t="inlineStr">
         <is>
-          <t>51.1</t>
-        </is>
-      </c>
-      <c r="F2388" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+          <t>C$66.43B</t>
+        </is>
+      </c>
+      <c r="F2388" t="inlineStr"/>
       <c r="G2388" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>C$ 64.5B</t>
         </is>
       </c>
       <c r="H2388" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>04:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2389" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2389" t="inlineStr"/>
       <c r="E2389" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>$-78.2B</t>
         </is>
       </c>
       <c r="F2389" t="inlineStr"/>
       <c r="G2389" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>$ -68B</t>
         </is>
       </c>
       <c r="H2389" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2390" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2390" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D2390" t="inlineStr"/>
       <c r="E2390" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>$273.4B</t>
         </is>
       </c>
       <c r="F2390" t="inlineStr"/>
       <c r="G2390" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ 275.0B</t>
         </is>
       </c>
       <c r="H2390" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2391" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2391" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D2391" t="inlineStr"/>
       <c r="E2391" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>$351.6B</t>
         </is>
       </c>
       <c r="F2391" t="inlineStr"/>
       <c r="G2391" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>$ 338B</t>
         </is>
       </c>
       <c r="H2391" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2392" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t>30-Year Green Gilt Auction</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="D2392" t="inlineStr"/>
-      <c r="E2392" t="inlineStr">
-        <is>
-          <t>4.831%</t>
-        </is>
-      </c>
+      <c r="E2392" t="inlineStr"/>
       <c r="F2392" t="inlineStr"/>
       <c r="G2392" t="inlineStr"/>
       <c r="H2392" t="inlineStr">
@@ -76692,27 +76544,31 @@
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2393" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>S&amp;P Global Composite PMIJAN</t>
         </is>
       </c>
       <c r="D2393" t="inlineStr"/>
       <c r="E2393" t="inlineStr">
         <is>
-          <t>2.615%</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="F2393" t="inlineStr"/>
-      <c r="G2393" t="inlineStr"/>
+      <c r="G2393" t="inlineStr">
+        <is>
+          <t>48.5</t>
+        </is>
+      </c>
       <c r="H2393" t="inlineStr">
         <is>
           <t>3</t>
@@ -76722,27 +76578,31 @@
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>06:10 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2394" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2394" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>S&amp;P Global Services PMIJAN</t>
         </is>
       </c>
       <c r="D2394" t="inlineStr"/>
       <c r="E2394" t="inlineStr">
         <is>
-          <t>2.505%</t>
+          <t>48.2</t>
         </is>
       </c>
       <c r="F2394" t="inlineStr"/>
-      <c r="G2394" t="inlineStr"/>
+      <c r="G2394" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
       <c r="H2394" t="inlineStr">
         <is>
           <t>3</t>
@@ -76752,59 +76612,71 @@
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2395" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t>M3 Money Supply YoYJAN/24</t>
+          <t>S&amp;P Global Composite PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2395" t="inlineStr"/>
       <c r="E2395" t="inlineStr">
         <is>
-          <t>10.1%</t>
-        </is>
-      </c>
-      <c r="F2395" t="inlineStr"/>
-      <c r="G2395" t="inlineStr"/>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="F2395" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="G2395" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
       <c r="H2395" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B2396" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2396" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>S&amp;P Global Services PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2396" t="inlineStr"/>
       <c r="E2396" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F2396" t="inlineStr"/>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="F2396" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
       <c r="G2396" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="H2396" t="inlineStr">
@@ -76816,57 +76688,49 @@
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2397" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>ISM Services PMIJAN</t>
         </is>
       </c>
       <c r="D2397" t="inlineStr"/>
-      <c r="E2397" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E2397" t="inlineStr"/>
       <c r="F2397" t="inlineStr"/>
-      <c r="G2397" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
+      <c r="G2397" t="inlineStr"/>
       <c r="H2397" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2398" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMNOV</t>
+          <t>ISM Services Business ActivityJAN</t>
         </is>
       </c>
       <c r="D2398" t="inlineStr"/>
       <c r="E2398" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="F2398" t="inlineStr"/>
@@ -76880,23 +76744,23 @@
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2399" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2399" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYNOV</t>
+          <t>ISM Services EmploymentJAN</t>
         </is>
       </c>
       <c r="D2399" t="inlineStr"/>
       <c r="E2399" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="F2399" t="inlineStr"/>
@@ -76910,7 +76774,7 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2400" t="inlineStr">
@@ -76920,23 +76784,27 @@
       </c>
       <c r="C2400" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/31</t>
+          <t>ISM Services New OrdersJAN</t>
         </is>
       </c>
       <c r="D2400" t="inlineStr"/>
-      <c r="E2400" t="inlineStr"/>
+      <c r="E2400" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
       <c r="F2400" t="inlineStr"/>
       <c r="G2400" t="inlineStr"/>
       <c r="H2400" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2401" t="inlineStr">
@@ -76946,11 +76814,15 @@
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/31</t>
+          <t>ISM Services PricesJAN</t>
         </is>
       </c>
       <c r="D2401" t="inlineStr"/>
-      <c r="E2401" t="inlineStr"/>
+      <c r="E2401" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="F2401" t="inlineStr"/>
       <c r="G2401" t="inlineStr"/>
       <c r="H2401" t="inlineStr">
@@ -76962,7 +76834,7 @@
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2402" t="inlineStr">
@@ -76972,7 +76844,7 @@
       </c>
       <c r="C2402" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/31</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2402" t="inlineStr"/>
@@ -76981,14 +76853,14 @@
       <c r="G2402" t="inlineStr"/>
       <c r="H2402" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2403" t="inlineStr">
@@ -76998,7 +76870,7 @@
       </c>
       <c r="C2403" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/31</t>
+          <t>EIA Gasoline Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2403" t="inlineStr"/>
@@ -77007,14 +76879,14 @@
       <c r="G2403" t="inlineStr"/>
       <c r="H2403" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2404" t="inlineStr">
@@ -77024,7 +76896,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/31</t>
+          <t>EIA Crude Oil Imports ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2404" t="inlineStr"/>
@@ -77040,65 +76912,49 @@
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2405" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2405" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2405" t="inlineStr"/>
-      <c r="E2405" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+      <c r="E2405" t="inlineStr"/>
       <c r="F2405" t="inlineStr"/>
-      <c r="G2405" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
+      <c r="G2405" t="inlineStr"/>
       <c r="H2405" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2406" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2406" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2406" t="inlineStr"/>
-      <c r="E2406" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+      <c r="E2406" t="inlineStr"/>
       <c r="F2406" t="inlineStr"/>
-      <c r="G2406" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="G2406" t="inlineStr"/>
       <c r="H2406" t="inlineStr">
         <is>
           <t>3</t>
@@ -77108,7 +76964,7 @@
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2407" t="inlineStr">
@@ -77118,85 +76974,65 @@
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeJAN</t>
+          <t>EIA Distillate Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2407" t="inlineStr"/>
-      <c r="E2407" t="inlineStr">
-        <is>
-          <t>122K</t>
-        </is>
-      </c>
+      <c r="E2407" t="inlineStr"/>
       <c r="F2407" t="inlineStr"/>
       <c r="G2407" t="inlineStr"/>
       <c r="H2407" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2408" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>EIA Gasoline Production ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2408" t="inlineStr"/>
-      <c r="E2408" t="inlineStr">
-        <is>
-          <t>C$-0.32B</t>
-        </is>
-      </c>
+      <c r="E2408" t="inlineStr"/>
       <c r="F2408" t="inlineStr"/>
-      <c r="G2408" t="inlineStr">
-        <is>
-          <t>C$ -1.6B</t>
-        </is>
-      </c>
+      <c r="G2408" t="inlineStr"/>
       <c r="H2408" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2409" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2409" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2409" t="inlineStr"/>
-      <c r="E2409" t="inlineStr">
-        <is>
-          <t>C$66.11B</t>
-        </is>
-      </c>
+      <c r="E2409" t="inlineStr"/>
       <c r="F2409" t="inlineStr"/>
-      <c r="G2409" t="inlineStr">
-        <is>
-          <t>C$ 65.8B</t>
-        </is>
-      </c>
+      <c r="G2409" t="inlineStr"/>
       <c r="H2409" t="inlineStr">
         <is>
           <t>3</t>
@@ -77206,31 +77042,23 @@
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2410" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
         </is>
       </c>
       <c r="D2410" t="inlineStr"/>
-      <c r="E2410" t="inlineStr">
-        <is>
-          <t>C$66.43B</t>
-        </is>
-      </c>
+      <c r="E2410" t="inlineStr"/>
       <c r="F2410" t="inlineStr"/>
-      <c r="G2410" t="inlineStr">
-        <is>
-          <t>C$ 64.5B</t>
-        </is>
-      </c>
+      <c r="G2410" t="inlineStr"/>
       <c r="H2410" t="inlineStr">
         <is>
           <t>3</t>
@@ -77240,29 +77068,25 @@
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2411" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2411" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2411" t="inlineStr"/>
-      <c r="E2411" t="inlineStr">
-        <is>
-          <t>$-78.2B</t>
-        </is>
-      </c>
+      <c r="E2411" t="inlineStr"/>
       <c r="F2411" t="inlineStr"/>
       <c r="G2411" t="inlineStr">
         <is>
-          <t>$ -68B</t>
+          <t>2.40%</t>
         </is>
       </c>
       <c r="H2411" t="inlineStr">
@@ -77274,91 +77098,83 @@
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2412" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2412" t="inlineStr"/>
-      <c r="E2412" t="inlineStr">
-        <is>
-          <t>$273.4B</t>
-        </is>
-      </c>
+      <c r="E2412" t="inlineStr"/>
       <c r="F2412" t="inlineStr"/>
-      <c r="G2412" t="inlineStr">
-        <is>
-          <t>$ 275.0B</t>
-        </is>
-      </c>
+      <c r="G2412" t="inlineStr"/>
       <c r="H2412" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2413" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Corporate ProfitsNOV</t>
         </is>
       </c>
       <c r="D2413" t="inlineStr"/>
-      <c r="E2413" t="inlineStr">
-        <is>
-          <t>$351.6B</t>
-        </is>
-      </c>
+      <c r="E2413" t="inlineStr"/>
       <c r="F2413" t="inlineStr"/>
-      <c r="G2413" t="inlineStr">
-        <is>
-          <t>$ 338B</t>
-        </is>
-      </c>
+      <c r="G2413" t="inlineStr"/>
       <c r="H2413" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2414" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2414" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2414" t="inlineStr"/>
-      <c r="E2414" t="inlineStr"/>
+      <c r="E2414" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2414" t="inlineStr"/>
-      <c r="G2414" t="inlineStr"/>
+      <c r="G2414" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="H2414" t="inlineStr">
         <is>
           <t>3</t>
@@ -77368,31 +77184,23 @@
     <row r="2415">
       <c r="A2415" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2415" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2415" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMIJAN</t>
+          <t>Real Wage Growth YoYNOV</t>
         </is>
       </c>
       <c r="D2415" t="inlineStr"/>
-      <c r="E2415" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
+      <c r="E2415" t="inlineStr"/>
       <c r="F2415" t="inlineStr"/>
-      <c r="G2415" t="inlineStr">
-        <is>
-          <t>48.5</t>
-        </is>
-      </c>
+      <c r="G2415" t="inlineStr"/>
       <c r="H2415" t="inlineStr">
         <is>
           <t>3</t>
@@ -77402,29 +77210,25 @@
     <row r="2416">
       <c r="A2416" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B2416" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMIJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2416" t="inlineStr"/>
-      <c r="E2416" t="inlineStr">
-        <is>
-          <t>48.2</t>
-        </is>
-      </c>
+      <c r="E2416" t="inlineStr"/>
       <c r="F2416" t="inlineStr"/>
       <c r="G2416" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2416" t="inlineStr">
@@ -77436,7 +77240,7 @@
     <row r="2417">
       <c r="A2417" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B2417" t="inlineStr">
@@ -77446,73 +77250,49 @@
       </c>
       <c r="C2417" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D2417" t="inlineStr"/>
-      <c r="E2417" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="F2417" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
-      <c r="G2417" t="inlineStr">
-        <is>
-          <t>52.4</t>
-        </is>
-      </c>
+      <c r="E2417" t="inlineStr"/>
+      <c r="F2417" t="inlineStr"/>
+      <c r="G2417" t="inlineStr"/>
       <c r="H2417" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2418">
       <c r="A2418" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B2418" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2418" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalJAN</t>
+          <t>2-Year Bond Auction</t>
         </is>
       </c>
       <c r="D2418" t="inlineStr"/>
-      <c r="E2418" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="F2418" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="G2418" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
+      <c r="E2418" t="inlineStr"/>
+      <c r="F2418" t="inlineStr"/>
+      <c r="G2418" t="inlineStr"/>
       <c r="H2418" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2419" t="inlineStr">
@@ -77522,7 +77302,7 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>ISM Services PMIJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="D2419" t="inlineStr"/>
@@ -77531,64 +77311,72 @@
       <c r="G2419" t="inlineStr"/>
       <c r="H2419" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2420">
       <c r="A2420" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2420" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2420" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityJAN</t>
+          <t>Ai Group Industry IndexJAN</t>
         </is>
       </c>
       <c r="D2420" t="inlineStr"/>
       <c r="E2420" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>-10.8</t>
         </is>
       </c>
       <c r="F2420" t="inlineStr"/>
-      <c r="G2420" t="inlineStr"/>
+      <c r="G2420" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
       <c r="H2420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2421">
       <c r="A2421" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2421" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2421" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentJAN</t>
+          <t>Ai Group Construction IndexJAN</t>
         </is>
       </c>
       <c r="D2421" t="inlineStr"/>
       <c r="E2421" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>-19.0</t>
         </is>
       </c>
       <c r="F2421" t="inlineStr"/>
-      <c r="G2421" t="inlineStr"/>
+      <c r="G2421" t="inlineStr">
+        <is>
+          <t>-25</t>
+        </is>
+      </c>
       <c r="H2421" t="inlineStr">
         <is>
           <t>3</t>
@@ -77598,27 +77386,31 @@
     <row r="2422">
       <c r="A2422" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2422" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersJAN</t>
+          <t>Ai Group Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D2422" t="inlineStr"/>
       <c r="E2422" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="F2422" t="inlineStr"/>
-      <c r="G2422" t="inlineStr"/>
+      <c r="G2422" t="inlineStr">
+        <is>
+          <t>-13</t>
+        </is>
+      </c>
       <c r="H2422" t="inlineStr">
         <is>
           <t>3</t>
@@ -77628,27 +77420,27 @@
     <row r="2423">
       <c r="A2423" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2423" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2423" t="inlineStr">
         <is>
-          <t>ISM Services PricesJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2423" t="inlineStr"/>
-      <c r="E2423" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="E2423" t="inlineStr"/>
       <c r="F2423" t="inlineStr"/>
-      <c r="G2423" t="inlineStr"/>
+      <c r="G2423" t="inlineStr">
+        <is>
+          <t>$ 8.1B</t>
+        </is>
+      </c>
       <c r="H2423" t="inlineStr">
         <is>
           <t>3</t>
@@ -77658,17 +77450,17 @@
     <row r="2424">
       <c r="A2424" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2424" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/31</t>
+          <t>Overtime Pay YoYDEC</t>
         </is>
       </c>
       <c r="D2424" t="inlineStr"/>
@@ -77677,24 +77469,24 @@
       <c r="G2424" t="inlineStr"/>
       <c r="H2424" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2425">
       <c r="A2425" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2425" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/31</t>
+          <t>Foreign Bond InvestmentFEB/01</t>
         </is>
       </c>
       <c r="D2425" t="inlineStr"/>
@@ -77703,24 +77495,24 @@
       <c r="G2425" t="inlineStr"/>
       <c r="H2425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2426">
       <c r="A2426" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2426" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/31</t>
+          <t>Stock Investment by ForeignersFEB/01</t>
         </is>
       </c>
       <c r="D2426" t="inlineStr"/>
@@ -77736,47 +77528,59 @@
     <row r="2427">
       <c r="A2427" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2427" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/31</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2427" t="inlineStr"/>
-      <c r="E2427" t="inlineStr"/>
+      <c r="E2427" t="inlineStr">
+        <is>
+          <t>A$7.079B</t>
+        </is>
+      </c>
       <c r="F2427" t="inlineStr"/>
-      <c r="G2427" t="inlineStr"/>
+      <c r="G2427" t="inlineStr">
+        <is>
+          <t>A$ 3.2B</t>
+        </is>
+      </c>
       <c r="H2427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2428" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/31</t>
+          <t>Exports MoMDEC</t>
         </is>
       </c>
       <c r="D2428" t="inlineStr"/>
-      <c r="E2428" t="inlineStr"/>
+      <c r="E2428" t="inlineStr">
+        <is>
+          <t>4.8%</t>
+        </is>
+      </c>
       <c r="F2428" t="inlineStr"/>
       <c r="G2428" t="inlineStr"/>
       <c r="H2428" t="inlineStr">
@@ -77788,21 +77592,25 @@
     <row r="2429">
       <c r="A2429" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2429" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/31</t>
+          <t>Imports MoMDEC</t>
         </is>
       </c>
       <c r="D2429" t="inlineStr"/>
-      <c r="E2429" t="inlineStr"/>
+      <c r="E2429" t="inlineStr">
+        <is>
+          <t>1.7%</t>
+        </is>
+      </c>
       <c r="F2429" t="inlineStr"/>
       <c r="G2429" t="inlineStr"/>
       <c r="H2429" t="inlineStr">
@@ -77814,21 +77622,25 @@
     <row r="2430">
       <c r="A2430" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2430" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2430" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/31</t>
+          <t>30-Year JGB Auction</t>
         </is>
       </c>
       <c r="D2430" t="inlineStr"/>
-      <c r="E2430" t="inlineStr"/>
+      <c r="E2430" t="inlineStr">
+        <is>
+          <t>2.304%</t>
+        </is>
+      </c>
       <c r="F2430" t="inlineStr"/>
       <c r="G2430" t="inlineStr"/>
       <c r="H2430" t="inlineStr">
@@ -77840,21 +77652,25 @@
     <row r="2431">
       <c r="A2431" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B2431" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/31</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="D2431" t="inlineStr"/>
-      <c r="E2431" t="inlineStr"/>
+      <c r="E2431" t="inlineStr">
+        <is>
+          <t>0.3535%</t>
+        </is>
+      </c>
       <c r="F2431" t="inlineStr"/>
       <c r="G2431" t="inlineStr"/>
       <c r="H2431" t="inlineStr">
@@ -77864,11 +77680,7 @@
       </c>
     </row>
     <row r="2432">
-      <c r="A2432" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
+      <c r="A2432" t="inlineStr"/>
       <c r="B2432" t="inlineStr">
         <is>
           <t>US</t>
@@ -77876,594 +77688,18 @@
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/31</t>
+          <t>Total Vehicle SalesJAN</t>
         </is>
       </c>
       <c r="D2432" t="inlineStr"/>
-      <c r="E2432" t="inlineStr"/>
+      <c r="E2432" t="inlineStr">
+        <is>
+          <t>16.8M</t>
+        </is>
+      </c>
       <c r="F2432" t="inlineStr"/>
       <c r="G2432" t="inlineStr"/>
       <c r="H2432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2433">
-      <c r="A2433" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2433" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2433" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
-      <c r="D2433" t="inlineStr"/>
-      <c r="E2433" t="inlineStr"/>
-      <c r="F2433" t="inlineStr"/>
-      <c r="G2433" t="inlineStr">
-        <is>
-          <t>2.40%</t>
-        </is>
-      </c>
-      <c r="H2433" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2434">
-      <c r="A2434" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2434" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2434" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2434" t="inlineStr"/>
-      <c r="E2434" t="inlineStr"/>
-      <c r="F2434" t="inlineStr"/>
-      <c r="G2434" t="inlineStr"/>
-      <c r="H2434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2435">
-      <c r="A2435" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2435" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2435" t="inlineStr">
-        <is>
-          <t>Corporate ProfitsNOV</t>
-        </is>
-      </c>
-      <c r="D2435" t="inlineStr"/>
-      <c r="E2435" t="inlineStr"/>
-      <c r="F2435" t="inlineStr"/>
-      <c r="G2435" t="inlineStr"/>
-      <c r="H2435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2436">
-      <c r="A2436" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2436" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2436" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2436" t="inlineStr"/>
-      <c r="E2436" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="F2436" t="inlineStr"/>
-      <c r="G2436" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="H2436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2437">
-      <c r="A2437" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2437" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2437" t="inlineStr">
-        <is>
-          <t>Real Wage Growth YoYNOV</t>
-        </is>
-      </c>
-      <c r="D2437" t="inlineStr"/>
-      <c r="E2437" t="inlineStr"/>
-      <c r="F2437" t="inlineStr"/>
-      <c r="G2437" t="inlineStr"/>
-      <c r="H2437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2438">
-      <c r="A2438" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B2438" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2438" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2438" t="inlineStr"/>
-      <c r="E2438" t="inlineStr"/>
-      <c r="F2438" t="inlineStr"/>
-      <c r="G2438" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2439">
-      <c r="A2439" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B2439" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2439" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D2439" t="inlineStr"/>
-      <c r="E2439" t="inlineStr"/>
-      <c r="F2439" t="inlineStr"/>
-      <c r="G2439" t="inlineStr"/>
-      <c r="H2439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2440">
-      <c r="A2440" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B2440" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2440" t="inlineStr">
-        <is>
-          <t>2-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D2440" t="inlineStr"/>
-      <c r="E2440" t="inlineStr"/>
-      <c r="F2440" t="inlineStr"/>
-      <c r="G2440" t="inlineStr"/>
-      <c r="H2440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2441">
-      <c r="A2441" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2441" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2441" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="D2441" t="inlineStr"/>
-      <c r="E2441" t="inlineStr"/>
-      <c r="F2441" t="inlineStr"/>
-      <c r="G2441" t="inlineStr"/>
-      <c r="H2441" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2442">
-      <c r="A2442" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2442" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2442" t="inlineStr">
-        <is>
-          <t>Ai Group Industry IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2442" t="inlineStr"/>
-      <c r="E2442" t="inlineStr">
-        <is>
-          <t>-10.8</t>
-        </is>
-      </c>
-      <c r="F2442" t="inlineStr"/>
-      <c r="G2442" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
-      <c r="H2442" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2443">
-      <c r="A2443" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2443" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2443" t="inlineStr">
-        <is>
-          <t>Ai Group Construction IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2443" t="inlineStr"/>
-      <c r="E2443" t="inlineStr">
-        <is>
-          <t>-19.0</t>
-        </is>
-      </c>
-      <c r="F2443" t="inlineStr"/>
-      <c r="G2443" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="H2443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2444">
-      <c r="A2444" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
-      <c r="B2444" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2444" t="inlineStr">
-        <is>
-          <t>Ai Group Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D2444" t="inlineStr"/>
-      <c r="E2444" t="inlineStr">
-        <is>
-          <t>-17.9</t>
-        </is>
-      </c>
-      <c r="F2444" t="inlineStr"/>
-      <c r="G2444" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="H2444" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2445">
-      <c r="A2445" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2445" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2445" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2445" t="inlineStr"/>
-      <c r="E2445" t="inlineStr"/>
-      <c r="F2445" t="inlineStr"/>
-      <c r="G2445" t="inlineStr">
-        <is>
-          <t>$ 8.1B</t>
-        </is>
-      </c>
-      <c r="H2445" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2446">
-      <c r="A2446" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2446" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2446" t="inlineStr">
-        <is>
-          <t>Overtime Pay YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2446" t="inlineStr"/>
-      <c r="E2446" t="inlineStr"/>
-      <c r="F2446" t="inlineStr"/>
-      <c r="G2446" t="inlineStr"/>
-      <c r="H2446" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2447">
-      <c r="A2447" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2447" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2447" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB/01</t>
-        </is>
-      </c>
-      <c r="D2447" t="inlineStr"/>
-      <c r="E2447" t="inlineStr"/>
-      <c r="F2447" t="inlineStr"/>
-      <c r="G2447" t="inlineStr"/>
-      <c r="H2447" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2448">
-      <c r="A2448" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2448" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2448" t="inlineStr">
-        <is>
-          <t>Stock Investment by ForeignersFEB/01</t>
-        </is>
-      </c>
-      <c r="D2448" t="inlineStr"/>
-      <c r="E2448" t="inlineStr"/>
-      <c r="F2448" t="inlineStr"/>
-      <c r="G2448" t="inlineStr"/>
-      <c r="H2448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2449">
-      <c r="A2449" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2449" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2449" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D2449" t="inlineStr"/>
-      <c r="E2449" t="inlineStr">
-        <is>
-          <t>A$7.079B</t>
-        </is>
-      </c>
-      <c r="F2449" t="inlineStr"/>
-      <c r="G2449" t="inlineStr">
-        <is>
-          <t>A$ 3.2B</t>
-        </is>
-      </c>
-      <c r="H2449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2450">
-      <c r="A2450" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2450" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2450" t="inlineStr">
-        <is>
-          <t>Exports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2450" t="inlineStr"/>
-      <c r="E2450" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="F2450" t="inlineStr"/>
-      <c r="G2450" t="inlineStr"/>
-      <c r="H2450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2451">
-      <c r="A2451" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2451" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2451" t="inlineStr">
-        <is>
-          <t>Imports MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2451" t="inlineStr"/>
-      <c r="E2451" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F2451" t="inlineStr"/>
-      <c r="G2451" t="inlineStr"/>
-      <c r="H2451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2452">
-      <c r="A2452" t="inlineStr"/>
-      <c r="B2452" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2452" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesJAN</t>
-        </is>
-      </c>
-      <c r="D2452" t="inlineStr"/>
-      <c r="E2452" t="inlineStr">
-        <is>
-          <t>16.8M</t>
-        </is>
-      </c>
-      <c r="F2452" t="inlineStr"/>
-      <c r="G2452" t="inlineStr"/>
-      <c r="H2452" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-05.xlsx
@@ -72534,123 +72534,137 @@
     <row r="2261">
       <c r="A2261" t="inlineStr">
         <is>
-          <t>Sunday February 02 2025</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr"/>
-      <c r="C2261" t="inlineStr"/>
+          <t>01:00 AM</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMIJAN</t>
+        </is>
+      </c>
       <c r="D2261" t="inlineStr"/>
-      <c r="E2261" t="inlineStr"/>
+      <c r="E2261" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F2261" t="inlineStr"/>
       <c r="G2261" t="inlineStr"/>
-      <c r="H2261" t="inlineStr"/>
+      <c r="H2261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2262">
       <c r="A2262" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr">
         <is>
-          <t>S&amp;P Global Australia Manufacturing PMI FinalJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2262" t="inlineStr"/>
       <c r="E2262" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F2262" t="inlineStr"/>
       <c r="G2262" t="inlineStr"/>
-      <c r="H2262" t="n">
-        <v>2</v>
+      <c r="H2262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2263">
       <c r="A2263" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2263" t="inlineStr"/>
       <c r="E2263" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>44.38%</t>
         </is>
       </c>
       <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2263" t="n">
-        <v>3</v>
+      <c r="G2263" t="inlineStr"/>
+      <c r="H2263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Istanbul Chamber of Industry Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2264" t="inlineStr"/>
       <c r="E2264" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>49.1</t>
         </is>
       </c>
       <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H2264" t="n">
-        <v>3</v>
+      <c r="G2264" t="inlineStr"/>
+      <c r="H2264" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="D2265" t="inlineStr"/>
@@ -72660,421 +72674,425 @@
         </is>
       </c>
       <c r="F2265" t="inlineStr"/>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H2265" t="n">
-        <v>3</v>
+      <c r="G2265" t="inlineStr"/>
+      <c r="H2265" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t>BoJ Summary of Opinions</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2266" t="inlineStr"/>
-      <c r="E2266" t="inlineStr"/>
+      <c r="E2266" t="inlineStr">
+        <is>
+          <t>28.52%</t>
+        </is>
+      </c>
       <c r="F2266" t="inlineStr"/>
       <c r="G2266" t="inlineStr"/>
-      <c r="H2266" t="n">
-        <v>2</v>
+      <c r="H2266" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2267" t="inlineStr"/>
       <c r="E2267" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>-25.3K</t>
         </is>
       </c>
       <c r="F2267" t="inlineStr"/>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2267" t="n">
-        <v>2</v>
+      <c r="G2267" t="inlineStr"/>
+      <c r="H2267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2268" t="inlineStr"/>
-      <c r="E2268" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr"/>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2268" t="n">
-        <v>2</v>
+      <c r="G2268" t="inlineStr"/>
+      <c r="H2268" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:15 AM</t>
         </is>
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMJAN</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2269" t="inlineStr"/>
       <c r="E2269" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="F2269" t="inlineStr"/>
       <c r="G2269" t="inlineStr"/>
-      <c r="H2269" t="n">
-        <v>3</v>
+      <c r="H2269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:45 AM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM PrelDEC</t>
+          <t>HCOB Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2270" t="inlineStr"/>
       <c r="E2270" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr"/>
-      <c r="H2270" t="n">
-        <v>3</v>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:50 AM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2271" t="inlineStr"/>
       <c r="E2271" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="F2271" t="inlineStr"/>
+          <t>41.9</t>
+        </is>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
       <c r="G2271" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="H2271" t="n">
-        <v>3</v>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>03:55 AM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t>Jibun Bank Manufacturing PMI FinalJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2272" t="inlineStr"/>
       <c r="E2272" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="F2272" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G2272" t="inlineStr">
         <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="H2272" t="n">
-        <v>2</v>
+          <t>44.1</t>
+        </is>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMIJAN</t>
+          <t>HCOB Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2273" t="inlineStr"/>
       <c r="E2273" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F2273" t="inlineStr"/>
+          <t>45.1</t>
+        </is>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>46.1</t>
+        </is>
+      </c>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>49.5</t>
-        </is>
-      </c>
-      <c r="H2273" t="n">
-        <v>2</v>
+          <t>46.1</t>
+        </is>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B2274" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2274" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>ABSA Manufacturing PMIJAN</t>
         </is>
       </c>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="F2274" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+          <t>46.2</t>
+        </is>
+      </c>
+      <c r="F2274" t="inlineStr"/>
       <c r="G2274" t="inlineStr">
         <is>
-          <t>50.5</t>
-        </is>
-      </c>
-      <c r="H2274" t="n">
-        <v>1</v>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>04:30 AM</t>
         </is>
       </c>
       <c r="B2275" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FinalJAN</t>
         </is>
       </c>
       <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr">
         <is>
-          <t>1.57%</t>
-        </is>
-      </c>
-      <c r="F2275" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>48.2</t>
+        </is>
+      </c>
       <c r="G2275" t="inlineStr">
         <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="H2275" t="n">
-        <v>2</v>
+          <t>48.2</t>
+        </is>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2276" t="inlineStr"/>
-      <c r="E2276" t="inlineStr">
-        <is>
-          <t>2.26%</t>
-        </is>
-      </c>
+      <c r="E2276" t="inlineStr"/>
       <c r="F2276" t="inlineStr"/>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="H2276" t="n">
-        <v>3</v>
+      <c r="G2276" t="inlineStr"/>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Core Inflation Rate YoY FlashJAN</t>
         </is>
       </c>
       <c r="D2277" t="inlineStr"/>
       <c r="E2277" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="F2277" t="inlineStr"/>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2277" t="n">
-        <v>3</v>
+      <c r="G2277" t="inlineStr"/>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Inflation Rate MoM FlashJAN</t>
         </is>
       </c>
       <c r="D2278" t="inlineStr"/>
-      <c r="E2278" t="inlineStr">
-        <is>
-          <t>17.27%</t>
-        </is>
-      </c>
+      <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr"/>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>18.0%</t>
-        </is>
-      </c>
-      <c r="H2278" t="n">
-        <v>3</v>
+      <c r="G2278" t="inlineStr"/>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="2279">
@@ -73876,7 +73894,11 @@
         </is>
       </c>
       <c r="D2306" t="inlineStr"/>
-      <c r="E2306" t="inlineStr"/>
+      <c r="E2306" t="inlineStr">
+        <is>
+          <t>3.08%</t>
+        </is>
+      </c>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr"/>
       <c r="H2306" t="inlineStr">
@@ -73902,7 +73924,11 @@
         </is>
       </c>
       <c r="D2307" t="inlineStr"/>
-      <c r="E2307" t="inlineStr"/>
+      <c r="E2307" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="F2307" t="inlineStr"/>
       <c r="G2307" t="inlineStr"/>
       <c r="H2307" t="inlineStr">
